--- a/Files/data/Tabela Horários - 2022_2-2024_1.xlsx
+++ b/Files/data/Tabela Horários - 2022_2-2024_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDExt\GitHub\UENF\9Semestre\timetabling-UENF\Files\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84188C2-603D-457F-B1E8-5408E720E7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953F0C14-6F3D-4BB9-BF9E-E676669B889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" activeTab="7" xr2:uid="{1C8FA9D8-4D42-4A70-8FB9-33E931F6F4A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" activeTab="3" xr2:uid="{1C8FA9D8-4D42-4A70-8FB9-33E931F6F4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="T2024.1" sheetId="17" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14">'2023.1 - json'!$A$1:$M$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13">'2023.2'!$B$1:$O$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2024.1'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'H2022.2'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'H2022.2'!$A$1:$H$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'H2023.1'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'H2023.2'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'H2024.1'!$A$1:$H$1</definedName>
@@ -1144,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1165,8 +1165,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1510,12 +1509,12 @@
   <cols>
     <col min="1" max="2" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1529,22 +1528,22 @@
       <c r="C1" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>331</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>332</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>336</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1556,26 +1555,26 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>_xlfn.CONCAT(C2,0,D2,IF(A2&lt;10,_xlfn.CONCAT(0,A2),A2))</f>
+        <f t="shared" ref="B2:B30" si="0">_xlfn.CONCAT(C2,0,D2,IF(A2&lt;10,_xlfn.CONCAT(0,A2),A2))</f>
         <v>20240101</v>
       </c>
       <c r="C2">
         <v>2024</v>
       </c>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
         <v>7</v>
       </c>
-      <c r="H2" s="13">
-        <v>1</v>
-      </c>
-      <c r="I2" s="13">
+      <c r="H2" s="12">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12">
         <v>35</v>
       </c>
       <c r="J2" t="str">
-        <f>_xlfn.CONCAT($B$1,B2,$C$1,C2,$D$1,D2,$H$1, H2,$F$1,F2,$I$1,I2,"},")</f>
+        <f t="shared" ref="J2:J30" si="1">_xlfn.CONCAT($B$1,B2,$C$1,C2,$D$1,D2,$H$1, H2,$F$1,F2,$I$1,I2,"},")</f>
         <v>{"id": 20240101, "ano": 2024, "semestre": 1, "idDisciplina": 1, "idProfessor": 7, "demandaEstimada": 35},</v>
       </c>
     </row>
@@ -1584,26 +1583,26 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>_xlfn.CONCAT(C3,0,D3,IF(A3&lt;10,_xlfn.CONCAT(0,A3),A3))</f>
+        <f t="shared" si="0"/>
         <v>20240102</v>
       </c>
       <c r="C3">
         <v>2024</v>
       </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
         <v>9</v>
       </c>
-      <c r="H3" s="13">
-        <v>2</v>
-      </c>
-      <c r="I3" s="13">
+      <c r="H3" s="12">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12">
         <v>35</v>
       </c>
       <c r="J3" t="str">
-        <f>_xlfn.CONCAT($B$1,B3,$C$1,C3,$D$1,D3,$H$1, H3,$F$1,F3,$I$1,I3,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240102, "ano": 2024, "semestre": 1, "idDisciplina": 2, "idProfessor": 9, "demandaEstimada": 35},</v>
       </c>
     </row>
@@ -1612,26 +1611,26 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>_xlfn.CONCAT(C4,0,D4,IF(A4&lt;10,_xlfn.CONCAT(0,A4),A4))</f>
+        <f t="shared" si="0"/>
         <v>20240103</v>
       </c>
       <c r="C4">
         <v>2024</v>
       </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
         <v>30</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>3</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>27</v>
       </c>
       <c r="J4" t="str">
-        <f>_xlfn.CONCAT($B$1,B4,$C$1,C4,$D$1,D4,$H$1, H4,$F$1,F4,$I$1,I4,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240103, "ano": 2024, "semestre": 1, "idDisciplina": 3, "idProfessor": 30, "demandaEstimada": 27},</v>
       </c>
     </row>
@@ -1640,26 +1639,26 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>_xlfn.CONCAT(C5,0,D5,IF(A5&lt;10,_xlfn.CONCAT(0,A5),A5))</f>
+        <f t="shared" si="0"/>
         <v>20240104</v>
       </c>
       <c r="C5">
         <v>2024</v>
       </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
         <v>3</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>4</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>30</v>
       </c>
       <c r="J5" t="str">
-        <f>_xlfn.CONCAT($B$1,B5,$C$1,C5,$D$1,D5,$H$1, H5,$F$1,F5,$I$1,I5,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240104, "ano": 2024, "semestre": 1, "idDisciplina": 4, "idProfessor": 3, "demandaEstimada": 30},</v>
       </c>
     </row>
@@ -1668,26 +1667,26 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>_xlfn.CONCAT(C6,0,D6,IF(A6&lt;10,_xlfn.CONCAT(0,A6),A6))</f>
+        <f t="shared" si="0"/>
         <v>20240105</v>
       </c>
       <c r="C6">
         <v>2024</v>
       </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12">
         <v>5</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>27</v>
       </c>
       <c r="J6" t="str">
-        <f>_xlfn.CONCAT($B$1,B6,$C$1,C6,$D$1,D6,$H$1, H6,$F$1,F6,$I$1,I6,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240105, "ano": 2024, "semestre": 1, "idDisciplina": 5, "idProfessor": 2, "demandaEstimada": 27},</v>
       </c>
     </row>
@@ -1696,26 +1695,26 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>_xlfn.CONCAT(C7,0,D7,IF(A7&lt;10,_xlfn.CONCAT(0,A7),A7))</f>
+        <f t="shared" si="0"/>
         <v>20240106</v>
       </c>
       <c r="C7">
         <v>2024</v>
       </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
         <v>6</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>27</v>
       </c>
       <c r="J7" t="str">
-        <f>_xlfn.CONCAT($B$1,B7,$C$1,C7,$D$1,D7,$H$1, H7,$F$1,F7,$I$1,I7,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240106, "ano": 2024, "semestre": 1, "idDisciplina": 6, "idProfessor": 1, "demandaEstimada": 27},</v>
       </c>
     </row>
@@ -1724,26 +1723,26 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>_xlfn.CONCAT(C8,0,D8,IF(A8&lt;10,_xlfn.CONCAT(0,A8),A8))</f>
+        <f t="shared" si="0"/>
         <v>20240107</v>
       </c>
       <c r="C8">
         <v>2024</v>
       </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
         <v>42</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>7</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>30</v>
       </c>
       <c r="J8" t="str">
-        <f>_xlfn.CONCAT($B$1,B8,$C$1,C8,$D$1,D8,$H$1, H8,$F$1,F8,$I$1,I8,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240107, "ano": 2024, "semestre": 1, "idDisciplina": 7, "idProfessor": 42, "demandaEstimada": 30},</v>
       </c>
     </row>
@@ -1752,26 +1751,26 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>_xlfn.CONCAT(C9,0,D9,IF(A9&lt;10,_xlfn.CONCAT(0,A9),A9))</f>
+        <f t="shared" si="0"/>
         <v>20240108</v>
       </c>
       <c r="C9">
         <v>2024</v>
       </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
         <v>22</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>20</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>9</v>
       </c>
       <c r="J9" t="str">
-        <f>_xlfn.CONCAT($B$1,B9,$C$1,C9,$D$1,D9,$H$1, H9,$F$1,F9,$I$1,I9,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240108, "ano": 2024, "semestre": 1, "idDisciplina": 20, "idProfessor": 22, "demandaEstimada": 9},</v>
       </c>
     </row>
@@ -1780,26 +1779,26 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>_xlfn.CONCAT(C10,0,D10,IF(A10&lt;10,_xlfn.CONCAT(0,A10),A10))</f>
+        <f t="shared" si="0"/>
         <v>20240109</v>
       </c>
       <c r="C10">
         <v>2024</v>
       </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
         <v>23</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>22</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>9</v>
       </c>
       <c r="J10" t="str">
-        <f>_xlfn.CONCAT($B$1,B10,$C$1,C10,$D$1,D10,$H$1, H10,$F$1,F10,$I$1,I10,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240109, "ano": 2024, "semestre": 1, "idDisciplina": 22, "idProfessor": 23, "demandaEstimada": 9},</v>
       </c>
     </row>
@@ -1808,26 +1807,26 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>_xlfn.CONCAT(C11,0,D11,IF(A11&lt;10,_xlfn.CONCAT(0,A11),A11))</f>
+        <f t="shared" si="0"/>
         <v>20240110</v>
       </c>
       <c r="C11">
         <v>2024</v>
       </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
         <v>13</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>23</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>25</v>
       </c>
       <c r="J11" t="str">
-        <f>_xlfn.CONCAT($B$1,B11,$C$1,C11,$D$1,D11,$H$1, H11,$F$1,F11,$I$1,I11,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240110, "ano": 2024, "semestre": 1, "idDisciplina": 23, "idProfessor": 13, "demandaEstimada": 25},</v>
       </c>
     </row>
@@ -1836,26 +1835,26 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f>_xlfn.CONCAT(C12,0,D12,IF(A12&lt;10,_xlfn.CONCAT(0,A12),A12))</f>
+        <f t="shared" si="0"/>
         <v>20240111</v>
       </c>
       <c r="C12">
         <v>2024</v>
       </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
         <v>8</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>24</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>15</v>
       </c>
       <c r="J12" t="str">
-        <f>_xlfn.CONCAT($B$1,B12,$C$1,C12,$D$1,D12,$H$1, H12,$F$1,F12,$I$1,I12,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240111, "ano": 2024, "semestre": 1, "idDisciplina": 24, "idProfessor": 8, "demandaEstimada": 15},</v>
       </c>
     </row>
@@ -1864,26 +1863,26 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>_xlfn.CONCAT(C13,0,D13,IF(A13&lt;10,_xlfn.CONCAT(0,A13),A13))</f>
+        <f t="shared" si="0"/>
         <v>20240112</v>
       </c>
       <c r="C13">
         <v>2024</v>
       </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
         <v>31</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>25</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>30</v>
       </c>
       <c r="J13" t="str">
-        <f>_xlfn.CONCAT($B$1,B13,$C$1,C13,$D$1,D13,$H$1, H13,$F$1,F13,$I$1,I13,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240112, "ano": 2024, "semestre": 1, "idDisciplina": 25, "idProfessor": 31, "demandaEstimada": 30},</v>
       </c>
     </row>
@@ -1892,26 +1891,26 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f>_xlfn.CONCAT(C14,0,D14,IF(A14&lt;10,_xlfn.CONCAT(0,A14),A14))</f>
+        <f t="shared" si="0"/>
         <v>20240113</v>
       </c>
       <c r="C14">
         <v>2024</v>
       </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
         <v>4</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>26</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>25</v>
       </c>
       <c r="J14" t="str">
-        <f>_xlfn.CONCAT($B$1,B14,$C$1,C14,$D$1,D14,$H$1, H14,$F$1,F14,$I$1,I14,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240113, "ano": 2024, "semestre": 1, "idDisciplina": 26, "idProfessor": 4, "demandaEstimada": 25},</v>
       </c>
     </row>
@@ -1920,26 +1919,26 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>_xlfn.CONCAT(C15,0,D15,IF(A15&lt;10,_xlfn.CONCAT(0,A15),A15))</f>
+        <f t="shared" si="0"/>
         <v>20240114</v>
       </c>
       <c r="C15">
         <v>2024</v>
       </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
         <v>3</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <v>27</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>25</v>
       </c>
       <c r="J15" t="str">
-        <f>_xlfn.CONCAT($B$1,B15,$C$1,C15,$D$1,D15,$H$1, H15,$F$1,F15,$I$1,I15,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240114, "ano": 2024, "semestre": 1, "idDisciplina": 27, "idProfessor": 3, "demandaEstimada": 25},</v>
       </c>
     </row>
@@ -1948,26 +1947,26 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>_xlfn.CONCAT(C16,0,D16,IF(A16&lt;10,_xlfn.CONCAT(0,A16),A16))</f>
+        <f t="shared" si="0"/>
         <v>20240115</v>
       </c>
       <c r="C16">
         <v>2024</v>
       </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13">
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
         <v>10</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>34</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <v>10</v>
       </c>
       <c r="J16" t="str">
-        <f>_xlfn.CONCAT($B$1,B16,$C$1,C16,$D$1,D16,$H$1, H16,$F$1,F16,$I$1,I16,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240115, "ano": 2024, "semestre": 1, "idDisciplina": 34, "idProfessor": 10, "demandaEstimada": 10},</v>
       </c>
     </row>
@@ -1976,26 +1975,26 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>_xlfn.CONCAT(C17,0,D17,IF(A17&lt;10,_xlfn.CONCAT(0,A17),A17))</f>
+        <f t="shared" si="0"/>
         <v>20240116</v>
       </c>
       <c r="C17">
         <v>2024</v>
       </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
         <v>6</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>35</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>30</v>
       </c>
       <c r="J17" t="str">
-        <f>_xlfn.CONCAT($B$1,B17,$C$1,C17,$D$1,D17,$H$1, H17,$F$1,F17,$I$1,I17,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240116, "ano": 2024, "semestre": 1, "idDisciplina": 35, "idProfessor": 6, "demandaEstimada": 30},</v>
       </c>
     </row>
@@ -2004,26 +2003,26 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f>_xlfn.CONCAT(C18,0,D18,IF(A18&lt;10,_xlfn.CONCAT(0,A18),A18))</f>
+        <f t="shared" si="0"/>
         <v>20240117</v>
       </c>
       <c r="C18">
         <v>2024</v>
       </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
         <v>5</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>36</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>27</v>
       </c>
       <c r="J18" t="str">
-        <f>_xlfn.CONCAT($B$1,B18,$C$1,C18,$D$1,D18,$H$1, H18,$F$1,F18,$I$1,I18,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240117, "ano": 2024, "semestre": 1, "idDisciplina": 36, "idProfessor": 5, "demandaEstimada": 27},</v>
       </c>
     </row>
@@ -2032,26 +2031,26 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f>_xlfn.CONCAT(C19,0,D19,IF(A19&lt;10,_xlfn.CONCAT(0,A19),A19))</f>
+        <f t="shared" si="0"/>
         <v>20240118</v>
       </c>
       <c r="C19">
         <v>2024</v>
       </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13">
-        <v>2</v>
-      </c>
-      <c r="H19" s="13">
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2</v>
+      </c>
+      <c r="H19" s="12">
         <v>37</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>20</v>
       </c>
       <c r="J19" t="str">
-        <f>_xlfn.CONCAT($B$1,B19,$C$1,C19,$D$1,D19,$H$1, H19,$F$1,F19,$I$1,I19,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240118, "ano": 2024, "semestre": 1, "idDisciplina": 37, "idProfessor": 2, "demandaEstimada": 20},</v>
       </c>
     </row>
@@ -2060,26 +2059,26 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f>_xlfn.CONCAT(C20,0,D20,IF(A20&lt;10,_xlfn.CONCAT(0,A20),A20))</f>
+        <f t="shared" si="0"/>
         <v>20240119</v>
       </c>
       <c r="C20">
         <v>2024</v>
       </c>
-      <c r="D20" s="13">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13">
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
         <v>4</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>38</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>28</v>
       </c>
       <c r="J20" t="str">
-        <f>_xlfn.CONCAT($B$1,B20,$C$1,C20,$D$1,D20,$H$1, H20,$F$1,F20,$I$1,I20,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240119, "ano": 2024, "semestre": 1, "idDisciplina": 38, "idProfessor": 4, "demandaEstimada": 28},</v>
       </c>
     </row>
@@ -2088,26 +2087,26 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>_xlfn.CONCAT(C21,0,D21,IF(A21&lt;10,_xlfn.CONCAT(0,A21),A21))</f>
+        <f t="shared" si="0"/>
         <v>20240120</v>
       </c>
       <c r="C21">
         <v>2024</v>
       </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13">
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
         <v>43</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>39</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>30</v>
       </c>
       <c r="J21" t="str">
-        <f>_xlfn.CONCAT($B$1,B21,$C$1,C21,$D$1,D21,$H$1, H21,$F$1,F21,$I$1,I21,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240120, "ano": 2024, "semestre": 1, "idDisciplina": 39, "idProfessor": 43, "demandaEstimada": 30},</v>
       </c>
     </row>
@@ -2116,26 +2115,26 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f>_xlfn.CONCAT(C22,0,D22,IF(A22&lt;10,_xlfn.CONCAT(0,A22),A22))</f>
+        <f t="shared" si="0"/>
         <v>20240121</v>
       </c>
       <c r="C22">
         <v>2024</v>
       </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12">
         <v>32</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>46</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>5</v>
       </c>
       <c r="J22" t="str">
-        <f>_xlfn.CONCAT($B$1,B22,$C$1,C22,$D$1,D22,$H$1, H22,$F$1,F22,$I$1,I22,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240121, "ano": 2024, "semestre": 1, "idDisciplina": 46, "idProfessor": 32, "demandaEstimada": 5},</v>
       </c>
     </row>
@@ -2144,26 +2143,26 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f>_xlfn.CONCAT(C23,0,D23,IF(A23&lt;10,_xlfn.CONCAT(0,A23),A23))</f>
+        <f t="shared" si="0"/>
         <v>20240122</v>
       </c>
       <c r="C23">
         <v>2024</v>
       </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
         <v>6</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>47</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="12">
         <v>6</v>
       </c>
       <c r="J23" t="str">
-        <f>_xlfn.CONCAT($B$1,B23,$C$1,C23,$D$1,D23,$H$1, H23,$F$1,F23,$I$1,I23,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240122, "ano": 2024, "semestre": 1, "idDisciplina": 47, "idProfessor": 6, "demandaEstimada": 6},</v>
       </c>
     </row>
@@ -2172,26 +2171,26 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <f>_xlfn.CONCAT(C24,0,D24,IF(A24&lt;10,_xlfn.CONCAT(0,A24),A24))</f>
+        <f t="shared" si="0"/>
         <v>20240123</v>
       </c>
       <c r="C24">
         <v>2024</v>
       </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12">
         <v>48</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="12">
         <v>10</v>
       </c>
       <c r="J24" t="str">
-        <f>_xlfn.CONCAT($B$1,B24,$C$1,C24,$D$1,D24,$H$1, H24,$F$1,F24,$I$1,I24,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240123, "ano": 2024, "semestre": 1, "idDisciplina": 48, "idProfessor": 1, "demandaEstimada": 10},</v>
       </c>
     </row>
@@ -2200,26 +2199,26 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f>_xlfn.CONCAT(C25,0,D25,IF(A25&lt;10,_xlfn.CONCAT(0,A25),A25))</f>
+        <f t="shared" si="0"/>
         <v>20240124</v>
       </c>
       <c r="C25">
         <v>2024</v>
       </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12">
         <v>29</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>49</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <v>12</v>
       </c>
       <c r="J25" t="str">
-        <f>_xlfn.CONCAT($B$1,B25,$C$1,C25,$D$1,D25,$H$1, H25,$F$1,F25,$I$1,I25,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240124, "ano": 2024, "semestre": 1, "idDisciplina": 49, "idProfessor": 29, "demandaEstimada": 12},</v>
       </c>
     </row>
@@ -2228,26 +2227,26 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <f>_xlfn.CONCAT(C26,0,D26,IF(A26&lt;10,_xlfn.CONCAT(0,A26),A26))</f>
+        <f t="shared" si="0"/>
         <v>20240125</v>
       </c>
       <c r="C26">
         <v>2024</v>
       </c>
-      <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13">
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12">
         <v>56</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="12">
         <v>5</v>
       </c>
       <c r="J26" t="str">
-        <f>_xlfn.CONCAT($B$1,B26,$C$1,C26,$D$1,D26,$H$1, H26,$F$1,F26,$I$1,I26,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240125, "ano": 2024, "semestre": 1, "idDisciplina": 56, "idProfessor": 1, "demandaEstimada": 5},</v>
       </c>
     </row>
@@ -2256,26 +2255,26 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <f>_xlfn.CONCAT(C27,0,D27,IF(A27&lt;10,_xlfn.CONCAT(0,A27),A27))</f>
+        <f t="shared" si="0"/>
         <v>20240126</v>
       </c>
       <c r="C27">
         <v>2024</v>
       </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13">
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12">
         <v>3</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <v>58</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <v>5</v>
       </c>
       <c r="J27" t="str">
-        <f>_xlfn.CONCAT($B$1,B27,$C$1,C27,$D$1,D27,$H$1, H27,$F$1,F27,$I$1,I27,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240126, "ano": 2024, "semestre": 1, "idDisciplina": 58, "idProfessor": 3, "demandaEstimada": 5},</v>
       </c>
     </row>
@@ -2284,26 +2283,26 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <f>_xlfn.CONCAT(C28,0,D28,IF(A28&lt;10,_xlfn.CONCAT(0,A28),A28))</f>
+        <f t="shared" si="0"/>
         <v>20240127</v>
       </c>
       <c r="C28">
         <v>2024</v>
       </c>
-      <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13">
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12">
         <v>3</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="12">
         <v>59</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="12">
         <v>4</v>
       </c>
       <c r="J28" t="str">
-        <f>_xlfn.CONCAT($B$1,B28,$C$1,C28,$D$1,D28,$H$1, H28,$F$1,F28,$I$1,I28,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240127, "ano": 2024, "semestre": 1, "idDisciplina": 59, "idProfessor": 3, "demandaEstimada": 4},</v>
       </c>
     </row>
@@ -2312,26 +2311,26 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <f>_xlfn.CONCAT(C29,0,D29,IF(A29&lt;10,_xlfn.CONCAT(0,A29),A29))</f>
+        <f t="shared" si="0"/>
         <v>20240128</v>
       </c>
       <c r="C29">
         <v>2024</v>
       </c>
-      <c r="D29" s="13">
-        <v>1</v>
-      </c>
-      <c r="F29" s="13">
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12">
         <v>5</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="12">
         <v>64</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="12">
         <v>10</v>
       </c>
       <c r="J29" t="str">
-        <f>_xlfn.CONCAT($B$1,B29,$C$1,C29,$D$1,D29,$H$1, H29,$F$1,F29,$I$1,I29,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240128, "ano": 2024, "semestre": 1, "idDisciplina": 64, "idProfessor": 5, "demandaEstimada": 10},</v>
       </c>
     </row>
@@ -2340,26 +2339,26 @@
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <f>_xlfn.CONCAT(C30,0,D30,IF(A30&lt;10,_xlfn.CONCAT(0,A30),A30))</f>
+        <f t="shared" si="0"/>
         <v>20240129</v>
       </c>
       <c r="C30">
         <v>2024</v>
       </c>
-      <c r="D30" s="13">
-        <v>1</v>
-      </c>
-      <c r="F30" s="13">
-        <v>1</v>
-      </c>
-      <c r="H30" s="13">
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12">
         <v>65</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="12">
         <v>7</v>
       </c>
       <c r="J30" t="str">
-        <f>_xlfn.CONCAT($B$1,B30,$C$1,C30,$D$1,D30,$H$1, H30,$F$1,F30,$I$1,I30,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20240129, "ano": 2024, "semestre": 1, "idDisciplina": 65, "idProfessor": 1, "demandaEstimada": 7},</v>
       </c>
     </row>
@@ -12074,7 +12073,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13213,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>_xlfn.CONCAT(C2,0,D2,IF(A2&lt;10,_xlfn.CONCAT(0,A2),A2))</f>
+        <f t="shared" ref="B2:B36" si="0">_xlfn.CONCAT(C2,0,D2,IF(A2&lt;10,_xlfn.CONCAT(0,A2),A2))</f>
         <v>20230101</v>
       </c>
       <c r="C2">
@@ -13238,7 +13237,7 @@
         <v>60</v>
       </c>
       <c r="J2" t="str">
-        <f>_xlfn.CONCAT($B$1,B2,$C$1,C2,$D$1,D2,$H$1, H2,$F$1,F2,$I$1,I2,"},")</f>
+        <f t="shared" ref="J2:J36" si="1">_xlfn.CONCAT($B$1,B2,$C$1,C2,$D$1,D2,$H$1, H2,$F$1,F2,$I$1,I2,"},")</f>
         <v>{"id": 20230101, "ano": 2023, "semestre": 1, "idDisciplina": 1, "idProfessor": 7, "demandaEstimada": 60},</v>
       </c>
     </row>
@@ -13247,7 +13246,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>_xlfn.CONCAT(C3,0,D3,IF(A3&lt;10,_xlfn.CONCAT(0,A3),A3))</f>
+        <f t="shared" si="0"/>
         <v>20230102</v>
       </c>
       <c r="C3">
@@ -13272,7 +13271,7 @@
         <v>40</v>
       </c>
       <c r="J3" t="str">
-        <f>_xlfn.CONCAT($B$1,B3,$C$1,C3,$D$1,D3,$H$1, H3,$F$1,F3,$I$1,I3,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230102, "ano": 2023, "semestre": 1, "idDisciplina": 2, "idProfessor": 9, "demandaEstimada": 40},</v>
       </c>
     </row>
@@ -13281,7 +13280,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>_xlfn.CONCAT(C4,0,D4,IF(A4&lt;10,_xlfn.CONCAT(0,A4),A4))</f>
+        <f t="shared" si="0"/>
         <v>20230103</v>
       </c>
       <c r="C4">
@@ -13306,7 +13305,7 @@
         <v>35</v>
       </c>
       <c r="J4" t="str">
-        <f>_xlfn.CONCAT($B$1,B4,$C$1,C4,$D$1,D4,$H$1, H4,$F$1,F4,$I$1,I4,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230103, "ano": 2023, "semestre": 1, "idDisciplina": 3, "idProfessor": 51, "demandaEstimada": 35},</v>
       </c>
     </row>
@@ -13315,7 +13314,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>_xlfn.CONCAT(C5,0,D5,IF(A5&lt;10,_xlfn.CONCAT(0,A5),A5))</f>
+        <f t="shared" si="0"/>
         <v>20230104</v>
       </c>
       <c r="C5">
@@ -13340,7 +13339,7 @@
         <v>40</v>
       </c>
       <c r="J5" t="str">
-        <f>_xlfn.CONCAT($B$1,B5,$C$1,C5,$D$1,D5,$H$1, H5,$F$1,F5,$I$1,I5,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230104, "ano": 2023, "semestre": 1, "idDisciplina": 4, "idProfessor": 3, "demandaEstimada": 40},</v>
       </c>
     </row>
@@ -13349,7 +13348,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>_xlfn.CONCAT(C6,0,D6,IF(A6&lt;10,_xlfn.CONCAT(0,A6),A6))</f>
+        <f t="shared" si="0"/>
         <v>20230105</v>
       </c>
       <c r="C6">
@@ -13374,7 +13373,7 @@
         <v>45</v>
       </c>
       <c r="J6" t="str">
-        <f>_xlfn.CONCAT($B$1,B6,$C$1,C6,$D$1,D6,$H$1, H6,$F$1,F6,$I$1,I6,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230105, "ano": 2023, "semestre": 1, "idDisciplina": 5, "idProfessor": 2, "demandaEstimada": 45},</v>
       </c>
     </row>
@@ -13383,7 +13382,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>_xlfn.CONCAT(C7,0,D7,IF(A7&lt;10,_xlfn.CONCAT(0,A7),A7))</f>
+        <f t="shared" si="0"/>
         <v>20230106</v>
       </c>
       <c r="C7">
@@ -13408,7 +13407,7 @@
         <v>25</v>
       </c>
       <c r="J7" t="str">
-        <f>_xlfn.CONCAT($B$1,B7,$C$1,C7,$D$1,D7,$H$1, H7,$F$1,F7,$I$1,I7,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230106, "ano": 2023, "semestre": 1, "idDisciplina": 5, "idProfessor": 5, "demandaEstimada": 25},</v>
       </c>
     </row>
@@ -13417,7 +13416,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>_xlfn.CONCAT(C8,0,D8,IF(A8&lt;10,_xlfn.CONCAT(0,A8),A8))</f>
+        <f t="shared" si="0"/>
         <v>20230107</v>
       </c>
       <c r="C8">
@@ -13442,7 +13441,7 @@
         <v>25</v>
       </c>
       <c r="J8" t="str">
-        <f>_xlfn.CONCAT($B$1,B8,$C$1,C8,$D$1,D8,$H$1, H8,$F$1,F8,$I$1,I8,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230107, "ano": 2023, "semestre": 1, "idDisciplina": 5, "idProfessor": 2, "demandaEstimada": 25},</v>
       </c>
     </row>
@@ -13451,7 +13450,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>_xlfn.CONCAT(C9,0,D9,IF(A9&lt;10,_xlfn.CONCAT(0,A9),A9))</f>
+        <f t="shared" si="0"/>
         <v>20230108</v>
       </c>
       <c r="C9">
@@ -13476,7 +13475,7 @@
         <v>35</v>
       </c>
       <c r="J9" t="str">
-        <f>_xlfn.CONCAT($B$1,B9,$C$1,C9,$D$1,D9,$H$1, H9,$F$1,F9,$I$1,I9,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230108, "ano": 2023, "semestre": 1, "idDisciplina": 6, "idProfessor": 1, "demandaEstimada": 35},</v>
       </c>
     </row>
@@ -13485,7 +13484,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>_xlfn.CONCAT(C10,0,D10,IF(A10&lt;10,_xlfn.CONCAT(0,A10),A10))</f>
+        <f t="shared" si="0"/>
         <v>20230109</v>
       </c>
       <c r="C10">
@@ -13510,7 +13509,7 @@
         <v>273</v>
       </c>
       <c r="J10" t="str">
-        <f>_xlfn.CONCAT($B$1,B10,$C$1,C10,$D$1,D10,$H$1, H10,$F$1,F10,$I$1,I10,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230109, "ano": 2023, "semestre": 1, "idDisciplina": 7, "idProfessor": 42, "demandaEstimada": null},</v>
       </c>
     </row>
@@ -13519,7 +13518,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>_xlfn.CONCAT(C11,0,D11,IF(A11&lt;10,_xlfn.CONCAT(0,A11),A11))</f>
+        <f t="shared" si="0"/>
         <v>20230110</v>
       </c>
       <c r="C11">
@@ -13544,7 +13543,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="str">
-        <f>_xlfn.CONCAT($B$1,B11,$C$1,C11,$D$1,D11,$H$1, H11,$F$1,F11,$I$1,I11,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230110, "ano": 2023, "semestre": 1, "idDisciplina": 16, "idProfessor": 36, "demandaEstimada": 4},</v>
       </c>
     </row>
@@ -13553,7 +13552,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f>_xlfn.CONCAT(C12,0,D12,IF(A12&lt;10,_xlfn.CONCAT(0,A12),A12))</f>
+        <f t="shared" si="0"/>
         <v>20230111</v>
       </c>
       <c r="C12">
@@ -13578,7 +13577,7 @@
         <v>5</v>
       </c>
       <c r="J12" t="str">
-        <f>_xlfn.CONCAT($B$1,B12,$C$1,C12,$D$1,D12,$H$1, H12,$F$1,F12,$I$1,I12,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230111, "ano": 2023, "semestre": 1, "idDisciplina": 18, "idProfessor": 36, "demandaEstimada": 5},</v>
       </c>
     </row>
@@ -13587,7 +13586,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>_xlfn.CONCAT(C13,0,D13,IF(A13&lt;10,_xlfn.CONCAT(0,A13),A13))</f>
+        <f t="shared" si="0"/>
         <v>20230112</v>
       </c>
       <c r="C13">
@@ -13612,7 +13611,7 @@
         <v>5</v>
       </c>
       <c r="J13" t="str">
-        <f>_xlfn.CONCAT($B$1,B13,$C$1,C13,$D$1,D13,$H$1, H13,$F$1,F13,$I$1,I13,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230112, "ano": 2023, "semestre": 1, "idDisciplina": 20, "idProfessor": 38, "demandaEstimada": 5},</v>
       </c>
     </row>
@@ -13621,7 +13620,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f>_xlfn.CONCAT(C14,0,D14,IF(A14&lt;10,_xlfn.CONCAT(0,A14),A14))</f>
+        <f t="shared" si="0"/>
         <v>20230113</v>
       </c>
       <c r="C14">
@@ -13646,7 +13645,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="str">
-        <f>_xlfn.CONCAT($B$1,B14,$C$1,C14,$D$1,D14,$H$1, H14,$F$1,F14,$I$1,I14,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230113, "ano": 2023, "semestre": 1, "idDisciplina": 22, "idProfessor": 36, "demandaEstimada": 3},</v>
       </c>
     </row>
@@ -13655,7 +13654,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>_xlfn.CONCAT(C15,0,D15,IF(A15&lt;10,_xlfn.CONCAT(0,A15),A15))</f>
+        <f t="shared" si="0"/>
         <v>20230114</v>
       </c>
       <c r="C15">
@@ -13680,7 +13679,7 @@
         <v>273</v>
       </c>
       <c r="J15" t="str">
-        <f>_xlfn.CONCAT($B$1,B15,$C$1,C15,$D$1,D15,$H$1, H15,$F$1,F15,$I$1,I15,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230114, "ano": 2023, "semestre": 1, "idDisciplina": 22, "idProfessor": 37, "demandaEstimada": null},</v>
       </c>
     </row>
@@ -13689,7 +13688,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>_xlfn.CONCAT(C16,0,D16,IF(A16&lt;10,_xlfn.CONCAT(0,A16),A16))</f>
+        <f t="shared" si="0"/>
         <v>20230115</v>
       </c>
       <c r="C16">
@@ -13714,7 +13713,7 @@
         <v>273</v>
       </c>
       <c r="J16" t="str">
-        <f>_xlfn.CONCAT($B$1,B16,$C$1,C16,$D$1,D16,$H$1, H16,$F$1,F16,$I$1,I16,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230115, "ano": 2023, "semestre": 1, "idDisciplina": 22, "idProfessor": 38, "demandaEstimada": null},</v>
       </c>
     </row>
@@ -13723,7 +13722,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>_xlfn.CONCAT(C17,0,D17,IF(A17&lt;10,_xlfn.CONCAT(0,A17),A17))</f>
+        <f t="shared" si="0"/>
         <v>20230116</v>
       </c>
       <c r="C17">
@@ -13748,7 +13747,7 @@
         <v>13</v>
       </c>
       <c r="J17" t="str">
-        <f>_xlfn.CONCAT($B$1,B17,$C$1,C17,$D$1,D17,$H$1, H17,$F$1,F17,$I$1,I17,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230116, "ano": 2023, "semestre": 1, "idDisciplina": 23, "idProfessor": 13, "demandaEstimada": 13},</v>
       </c>
     </row>
@@ -13757,7 +13756,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f>_xlfn.CONCAT(C18,0,D18,IF(A18&lt;10,_xlfn.CONCAT(0,A18),A18))</f>
+        <f t="shared" si="0"/>
         <v>20230117</v>
       </c>
       <c r="C18">
@@ -13782,7 +13781,7 @@
         <v>12</v>
       </c>
       <c r="J18" t="str">
-        <f>_xlfn.CONCAT($B$1,B18,$C$1,C18,$D$1,D18,$H$1, H18,$F$1,F18,$I$1,I18,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230117, "ano": 2023, "semestre": 1, "idDisciplina": 24, "idProfessor": 8, "demandaEstimada": 12},</v>
       </c>
     </row>
@@ -13791,7 +13790,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f>_xlfn.CONCAT(C19,0,D19,IF(A19&lt;10,_xlfn.CONCAT(0,A19),A19))</f>
+        <f t="shared" si="0"/>
         <v>20230118</v>
       </c>
       <c r="C19">
@@ -13816,7 +13815,7 @@
         <v>45</v>
       </c>
       <c r="J19" t="str">
-        <f>_xlfn.CONCAT($B$1,B19,$C$1,C19,$D$1,D19,$H$1, H19,$F$1,F19,$I$1,I19,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230118, "ano": 2023, "semestre": 1, "idDisciplina": 25, "idProfessor": 51, "demandaEstimada": 45},</v>
       </c>
     </row>
@@ -13825,7 +13824,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f>_xlfn.CONCAT(C20,0,D20,IF(A20&lt;10,_xlfn.CONCAT(0,A20),A20))</f>
+        <f t="shared" si="0"/>
         <v>20230119</v>
       </c>
       <c r="C20">
@@ -13850,7 +13849,7 @@
         <v>35</v>
       </c>
       <c r="J20" t="str">
-        <f>_xlfn.CONCAT($B$1,B20,$C$1,C20,$D$1,D20,$H$1, H20,$F$1,F20,$I$1,I20,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230119, "ano": 2023, "semestre": 1, "idDisciplina": 26, "idProfessor": 4, "demandaEstimada": 35},</v>
       </c>
     </row>
@@ -13859,7 +13858,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>_xlfn.CONCAT(C21,0,D21,IF(A21&lt;10,_xlfn.CONCAT(0,A21),A21))</f>
+        <f t="shared" si="0"/>
         <v>20230120</v>
       </c>
       <c r="C21">
@@ -13884,7 +13883,7 @@
         <v>45</v>
       </c>
       <c r="J21" t="str">
-        <f>_xlfn.CONCAT($B$1,B21,$C$1,C21,$D$1,D21,$H$1, H21,$F$1,F21,$I$1,I21,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230120, "ano": 2023, "semestre": 1, "idDisciplina": 27, "idProfessor": 3, "demandaEstimada": 45},</v>
       </c>
     </row>
@@ -13893,7 +13892,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f>_xlfn.CONCAT(C22,0,D22,IF(A22&lt;10,_xlfn.CONCAT(0,A22),A22))</f>
+        <f t="shared" si="0"/>
         <v>20230121</v>
       </c>
       <c r="C22">
@@ -13918,7 +13917,7 @@
         <v>16</v>
       </c>
       <c r="J22" t="str">
-        <f>_xlfn.CONCAT($B$1,B22,$C$1,C22,$D$1,D22,$H$1, H22,$F$1,F22,$I$1,I22,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230121, "ano": 2023, "semestre": 1, "idDisciplina": 27, "idProfessor": 3, "demandaEstimada": 16},</v>
       </c>
     </row>
@@ -13927,7 +13926,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f>_xlfn.CONCAT(C23,0,D23,IF(A23&lt;10,_xlfn.CONCAT(0,A23),A23))</f>
+        <f t="shared" si="0"/>
         <v>20230122</v>
       </c>
       <c r="C23">
@@ -13952,7 +13951,7 @@
         <v>30</v>
       </c>
       <c r="J23" t="str">
-        <f>_xlfn.CONCAT($B$1,B23,$C$1,C23,$D$1,D23,$H$1, H23,$F$1,F23,$I$1,I23,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230122, "ano": 2023, "semestre": 1, "idDisciplina": 28, "idProfessor": 8, "demandaEstimada": 30},</v>
       </c>
     </row>
@@ -13961,7 +13960,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <f>_xlfn.CONCAT(C24,0,D24,IF(A24&lt;10,_xlfn.CONCAT(0,A24),A24))</f>
+        <f t="shared" si="0"/>
         <v>20230123</v>
       </c>
       <c r="C24">
@@ -13986,7 +13985,7 @@
         <v>11</v>
       </c>
       <c r="J24" t="str">
-        <f>_xlfn.CONCAT($B$1,B24,$C$1,C24,$D$1,D24,$H$1, H24,$F$1,F24,$I$1,I24,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230123, "ano": 2023, "semestre": 1, "idDisciplina": 34, "idProfessor": 10, "demandaEstimada": 11},</v>
       </c>
     </row>
@@ -13995,7 +13994,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f>_xlfn.CONCAT(C25,0,D25,IF(A25&lt;10,_xlfn.CONCAT(0,A25),A25))</f>
+        <f t="shared" si="0"/>
         <v>20230124</v>
       </c>
       <c r="C25">
@@ -14020,7 +14019,7 @@
         <v>6</v>
       </c>
       <c r="J25" t="str">
-        <f>_xlfn.CONCAT($B$1,B25,$C$1,C25,$D$1,D25,$H$1, H25,$F$1,F25,$I$1,I25,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230124, "ano": 2023, "semestre": 1, "idDisciplina": 35, "idProfessor": 6, "demandaEstimada": 6},</v>
       </c>
     </row>
@@ -14029,7 +14028,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <f>_xlfn.CONCAT(C26,0,D26,IF(A26&lt;10,_xlfn.CONCAT(0,A26),A26))</f>
+        <f t="shared" si="0"/>
         <v>20230125</v>
       </c>
       <c r="C26">
@@ -14054,7 +14053,7 @@
         <v>13</v>
       </c>
       <c r="J26" t="str">
-        <f>_xlfn.CONCAT($B$1,B26,$C$1,C26,$D$1,D26,$H$1, H26,$F$1,F26,$I$1,I26,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230125, "ano": 2023, "semestre": 1, "idDisciplina": 36, "idProfessor": 5, "demandaEstimada": 13},</v>
       </c>
     </row>
@@ -14063,7 +14062,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <f>_xlfn.CONCAT(C27,0,D27,IF(A27&lt;10,_xlfn.CONCAT(0,A27),A27))</f>
+        <f t="shared" si="0"/>
         <v>20230126</v>
       </c>
       <c r="C27">
@@ -14088,7 +14087,7 @@
         <v>10</v>
       </c>
       <c r="J27" t="str">
-        <f>_xlfn.CONCAT($B$1,B27,$C$1,C27,$D$1,D27,$H$1, H27,$F$1,F27,$I$1,I27,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230126, "ano": 2023, "semestre": 1, "idDisciplina": 37, "idProfessor": 2, "demandaEstimada": 10},</v>
       </c>
     </row>
@@ -14097,7 +14096,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <f>_xlfn.CONCAT(C28,0,D28,IF(A28&lt;10,_xlfn.CONCAT(0,A28),A28))</f>
+        <f t="shared" si="0"/>
         <v>20230127</v>
       </c>
       <c r="C28">
@@ -14122,7 +14121,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="str">
-        <f>_xlfn.CONCAT($B$1,B28,$C$1,C28,$D$1,D28,$H$1, H28,$F$1,F28,$I$1,I28,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230127, "ano": 2023, "semestre": 1, "idDisciplina": 46, "idProfessor": 1, "demandaEstimada": 3},</v>
       </c>
     </row>
@@ -14131,7 +14130,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <f>_xlfn.CONCAT(C29,0,D29,IF(A29&lt;10,_xlfn.CONCAT(0,A29),A29))</f>
+        <f t="shared" si="0"/>
         <v>20230128</v>
       </c>
       <c r="C29">
@@ -14156,7 +14155,7 @@
         <v>8</v>
       </c>
       <c r="J29" t="str">
-        <f>_xlfn.CONCAT($B$1,B29,$C$1,C29,$D$1,D29,$H$1, H29,$F$1,F29,$I$1,I29,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230128, "ano": 2023, "semestre": 1, "idDisciplina": 46, "idProfessor": 6, "demandaEstimada": 8},</v>
       </c>
     </row>
@@ -14165,7 +14164,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <f>_xlfn.CONCAT(C30,0,D30,IF(A30&lt;10,_xlfn.CONCAT(0,A30),A30))</f>
+        <f t="shared" si="0"/>
         <v>20230129</v>
       </c>
       <c r="C30">
@@ -14190,7 +14189,7 @@
         <v>12</v>
       </c>
       <c r="J30" t="str">
-        <f>_xlfn.CONCAT($B$1,B30,$C$1,C30,$D$1,D30,$H$1, H30,$F$1,F30,$I$1,I30,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230129, "ano": 2023, "semestre": 1, "idDisciplina": 48, "idProfessor": 1, "demandaEstimada": 12},</v>
       </c>
     </row>
@@ -14199,7 +14198,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <f>_xlfn.CONCAT(C31,0,D31,IF(A31&lt;10,_xlfn.CONCAT(0,A31),A31))</f>
+        <f t="shared" si="0"/>
         <v>20230130</v>
       </c>
       <c r="C31">
@@ -14224,7 +14223,7 @@
         <v>273</v>
       </c>
       <c r="J31" t="str">
-        <f>_xlfn.CONCAT($B$1,B31,$C$1,C31,$D$1,D31,$H$1, H31,$F$1,F31,$I$1,I31,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230130, "ano": 2023, "semestre": 1, "idDisciplina": 54, "idProfessor": 29, "demandaEstimada": null},</v>
       </c>
     </row>
@@ -14233,7 +14232,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <f>_xlfn.CONCAT(C32,0,D32,IF(A32&lt;10,_xlfn.CONCAT(0,A32),A32))</f>
+        <f t="shared" si="0"/>
         <v>20230131</v>
       </c>
       <c r="C32">
@@ -14258,7 +14257,7 @@
         <v>273</v>
       </c>
       <c r="J32" t="str">
-        <f>_xlfn.CONCAT($B$1,B32,$C$1,C32,$D$1,D32,$H$1, H32,$F$1,F32,$I$1,I32,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230131, "ano": 2023, "semestre": 1, "idDisciplina": 57, "idProfessor": 39, "demandaEstimada": null},</v>
       </c>
     </row>
@@ -14267,7 +14266,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <f>_xlfn.CONCAT(C33,0,D33,IF(A33&lt;10,_xlfn.CONCAT(0,A33),A33))</f>
+        <f t="shared" si="0"/>
         <v>20230132</v>
       </c>
       <c r="C33">
@@ -14292,7 +14291,7 @@
         <v>273</v>
       </c>
       <c r="J33" t="str">
-        <f>_xlfn.CONCAT($B$1,B33,$C$1,C33,$D$1,D33,$H$1, H33,$F$1,F33,$I$1,I33,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230132, "ano": 2023, "semestre": 1, "idDisciplina": 58, "idProfessor": 3, "demandaEstimada": null},</v>
       </c>
     </row>
@@ -14301,7 +14300,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <f>_xlfn.CONCAT(C34,0,D34,IF(A34&lt;10,_xlfn.CONCAT(0,A34),A34))</f>
+        <f t="shared" si="0"/>
         <v>20230133</v>
       </c>
       <c r="C34">
@@ -14326,7 +14325,7 @@
         <v>273</v>
       </c>
       <c r="J34" t="str">
-        <f>_xlfn.CONCAT($B$1,B34,$C$1,C34,$D$1,D34,$H$1, H34,$F$1,F34,$I$1,I34,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230133, "ano": 2023, "semestre": 1, "idDisciplina": 59, "idProfessor": 3, "demandaEstimada": null},</v>
       </c>
     </row>
@@ -14335,7 +14334,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <f>_xlfn.CONCAT(C35,0,D35,IF(A35&lt;10,_xlfn.CONCAT(0,A35),A35))</f>
+        <f t="shared" si="0"/>
         <v>20230134</v>
       </c>
       <c r="C35">
@@ -14360,7 +14359,7 @@
         <v>5</v>
       </c>
       <c r="J35" t="str">
-        <f>_xlfn.CONCAT($B$1,B35,$C$1,C35,$D$1,D35,$H$1, H35,$F$1,F35,$I$1,I35,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230134, "ano": 2023, "semestre": 1, "idDisciplina": 65, "idProfessor": 1, "demandaEstimada": 5},</v>
       </c>
     </row>
@@ -14369,7 +14368,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <f>_xlfn.CONCAT(C36,0,D36,IF(A36&lt;10,_xlfn.CONCAT(0,A36),A36))</f>
+        <f t="shared" si="0"/>
         <v>20230135</v>
       </c>
       <c r="C36">
@@ -14394,7 +14393,7 @@
         <v>10</v>
       </c>
       <c r="J36" t="str">
-        <f>_xlfn.CONCAT($B$1,B36,$C$1,C36,$D$1,D36,$H$1, H36,$F$1,F36,$I$1,I36,"},")</f>
+        <f t="shared" si="1"/>
         <v>{"id": 20230135, "ano": 2023, "semestre": 1, "idDisciplina": 69, "idProfessor": 4, "demandaEstimada": 10},</v>
       </c>
     </row>
@@ -14413,8 +14412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201923BF-0BB3-4712-A113-09E024D62FF0}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J31" sqref="J2:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15575,7 +15574,7 @@
       <c r="G2" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H2" s="11" t="str">
+      <c r="H2" t="str">
         <f>_xlfn.CONCAT($B$1,B2,$C$1,C2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,"},")</f>
         <v>{"id": 2023010101, "dia": "TER", "horaInicio": 8, "duracao":2, "idTurma":20230101, "idSala": null},</v>
       </c>
@@ -15647,7 +15646,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="11" t="str">
+      <c r="H2" t="str">
         <f>_xlfn.CONCAT($B$1,B2,$C$1,C2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,"},")</f>
         <v>{"id": 01, "dia": "", "horaInicio": , "duracao":2, "idTurma":, "idSala": },</v>
       </c>
@@ -15662,7 +15661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA37617F-A236-483A-89A2-493072ED8677}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
@@ -15676,7 +15675,7 @@
     <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="86.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="2"/>
     <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.21875" style="2" bestFit="1" customWidth="1"/>
@@ -15742,7 +15741,7 @@
       <c r="G2" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H2" s="11" t="str">
+      <c r="H2" t="str">
         <f>_xlfn.CONCAT($B$1,B2,$C$1,C2,$D$1,D2,$E$1,E2,$F$1,F2,$G$1,G2,"},")</f>
         <v>{"id": 2023010101, "dia": "TER", "horaInicio": 8, "duracao":2, "idTurma":20230101, "idSala": null},</v>
       </c>
@@ -15776,7 +15775,7 @@
       <c r="G3" s="2">
         <v>26</v>
       </c>
-      <c r="H3" s="11" t="str">
+      <c r="H3" t="str">
         <f t="shared" ref="H3:H60" si="1">_xlfn.CONCAT($B$1,B3,$C$1,C3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,"},")</f>
         <v>{"id": 2023010102, "dia": "QUI", "horaInicio": 16, "duracao":2, "idTurma":20230101, "idSala": 26},</v>
       </c>
@@ -15812,7 +15811,7 @@
       <c r="G4" s="2">
         <v>20</v>
       </c>
-      <c r="H4" s="11" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023010503, "dia": "QUI", "horaInicio": 10, "duracao":2, "idTurma":20230105, "idSala": 20},</v>
       </c>
@@ -15846,7 +15845,7 @@
       <c r="G5" s="2">
         <v>20</v>
       </c>
-      <c r="H5" s="11" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023010504, "dia": "SEG", "horaInicio": 10, "duracao":2, "idTurma":20230105, "idSala": 20},</v>
       </c>
@@ -15880,7 +15879,7 @@
       <c r="G6" s="2">
         <v>20</v>
       </c>
-      <c r="H6" s="11" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023010505, "dia": "TER", "horaInicio": 10, "duracao":2, "idTurma":20230105, "idSala": 20},</v>
       </c>
@@ -15914,7 +15913,7 @@
       <c r="G7" s="2">
         <v>15</v>
       </c>
-      <c r="H7" s="11" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023010706, "dia": "QUI", "horaInicio": 10, "duracao":2, "idTurma":20230107, "idSala": 15},</v>
       </c>
@@ -15948,7 +15947,7 @@
       <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="11" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023010707, "dia": "SEX", "horaInicio": 10, "duracao":2, "idTurma":20230107, "idSala": 6},</v>
       </c>
@@ -15982,7 +15981,7 @@
       <c r="G9" s="2">
         <v>26</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023010908, "dia": "TER", "horaInicio": 14, "duracao":2, "idTurma":20230109, "idSala": 26},</v>
       </c>
@@ -16016,7 +16015,7 @@
       <c r="G10" s="2">
         <v>23</v>
       </c>
-      <c r="H10" s="11" t="str">
+      <c r="H10" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023010909, "dia": "QUI", "horaInicio": 16, "duracao":2, "idTurma":20230109, "idSala": 23},</v>
       </c>
@@ -16050,7 +16049,7 @@
       <c r="G11" s="2">
         <v>27</v>
       </c>
-      <c r="H11" s="11" t="str">
+      <c r="H11" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023011010, "dia": "SEG", "horaInicio": 18, "duracao":2, "idTurma":20230110, "idSala": 27},</v>
       </c>
@@ -16084,7 +16083,7 @@
       <c r="G12" s="2">
         <v>6</v>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023011111, "dia": "SEX", "horaInicio": 10, "duracao":2, "idTurma":20230111, "idSala": 6},</v>
       </c>
@@ -16118,7 +16117,7 @@
       <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="H13" s="11" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023011212, "dia": "SEG", "horaInicio": 14, "duracao":2, "idTurma":20230112, "idSala": 2},</v>
       </c>
@@ -16152,7 +16151,7 @@
       <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="H14" s="11" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023011313, "dia": "TER", "horaInicio": 10, "duracao":2, "idTurma":20230113, "idSala": 2},</v>
       </c>
@@ -16186,7 +16185,7 @@
       <c r="G15" s="2">
         <v>2</v>
       </c>
-      <c r="H15" s="11" t="str">
+      <c r="H15" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023011514, "dia": "QUA", "horaInicio": 10, "duracao":2, "idTurma":20230115, "idSala": 2},</v>
       </c>
@@ -16220,7 +16219,7 @@
       <c r="G16" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H16" s="11" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023011515, "dia": "SEG", "horaInicio": 10, "duracao":2, "idTurma":20230115, "idSala": null},</v>
       </c>
@@ -16254,7 +16253,7 @@
       <c r="G17" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H17" s="11" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023011716, "dia": "QUA", "horaInicio": 10, "duracao":2, "idTurma":20230117, "idSala": null},</v>
       </c>
@@ -16288,7 +16287,7 @@
       <c r="G18" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H18" s="11" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023011717, "dia": "SEG", "horaInicio": 14, "duracao":2, "idTurma":20230117, "idSala": null},</v>
       </c>
@@ -16322,7 +16321,7 @@
       <c r="G19" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H19" s="11" t="str">
+      <c r="H19" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023011818, "dia": "QUI", "horaInicio": 14, "duracao":2, "idTurma":20230118, "idSala": null},</v>
       </c>
@@ -16356,7 +16355,7 @@
       <c r="G20" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H20" s="11" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023012019, "dia": "QUA", "horaInicio": 14, "duracao":2, "idTurma":20230120, "idSala": null},</v>
       </c>
@@ -16390,7 +16389,7 @@
       <c r="G21" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H21" s="11" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023012020, "dia": "TER", "horaInicio": 14, "duracao":2, "idTurma":20230120, "idSala": null},</v>
       </c>
@@ -16424,7 +16423,7 @@
       <c r="G22" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H22" s="11" t="str">
+      <c r="H22" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023012121, "dia": "SEG", "horaInicio": 14, "duracao":2, "idTurma":20230121, "idSala": null},</v>
       </c>
@@ -16458,7 +16457,7 @@
       <c r="G23" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H23" s="11" t="str">
+      <c r="H23" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023012222, "dia": "QUA", "horaInicio": 14, "duracao":2, "idTurma":20230122, "idSala": null},</v>
       </c>
@@ -16492,7 +16491,7 @@
       <c r="G24" s="2">
         <v>26</v>
       </c>
-      <c r="H24" s="11" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023012323, "dia": "TER", "horaInicio": 16, "duracao":2, "idTurma":20230123, "idSala": 26},</v>
       </c>
@@ -16526,7 +16525,7 @@
       <c r="G25" s="2">
         <v>8</v>
       </c>
-      <c r="H25" s="11" t="str">
+      <c r="H25" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023012524, "dia": "SEG", "horaInicio": 8, "duracao":2, "idTurma":20230125, "idSala": 8},</v>
       </c>
@@ -16560,7 +16559,7 @@
       <c r="G26" s="2">
         <v>26</v>
       </c>
-      <c r="H26" s="11" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023012525, "dia": "QUI", "horaInicio": 14, "duracao":2, "idTurma":20230125, "idSala": 26},</v>
       </c>
@@ -16594,7 +16593,7 @@
       <c r="G27" s="2">
         <v>26</v>
       </c>
-      <c r="H27" s="11" t="str">
+      <c r="H27" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023012726, "dia": "QUI", "horaInicio": 14, "duracao":2, "idTurma":20230127, "idSala": 26},</v>
       </c>
@@ -16628,7 +16627,7 @@
       <c r="G28" s="2">
         <v>26</v>
       </c>
-      <c r="H28" s="11" t="str">
+      <c r="H28" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023012727, "dia": "QUA", "horaInicio": 16, "duracao":2, "idTurma":20230127, "idSala": 26},</v>
       </c>
@@ -16662,7 +16661,7 @@
       <c r="G29" s="2">
         <v>26</v>
       </c>
-      <c r="H29" s="11" t="str">
+      <c r="H29" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023012928, "dia": "QUI", "horaInicio": 8, "duracao":2, "idTurma":20230129, "idSala": 26},</v>
       </c>
@@ -16696,7 +16695,7 @@
       <c r="G30" s="2">
         <v>26</v>
       </c>
-      <c r="H30" s="11" t="str">
+      <c r="H30" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023012929, "dia": "TER", "horaInicio": 8, "duracao":2, "idTurma":20230129, "idSala": 26},</v>
       </c>
@@ -16730,7 +16729,7 @@
       <c r="G31" s="2">
         <v>6</v>
       </c>
-      <c r="H31" s="11" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023013130, "dia": "SEX", "horaInicio": 14, "duracao":2, "idTurma":20230131, "idSala": 6},</v>
       </c>
@@ -16764,7 +16763,7 @@
       <c r="G32" s="2">
         <v>2</v>
       </c>
-      <c r="H32" s="11" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023013131, "dia": "SEX", "horaInicio": 16, "duracao":2, "idTurma":20230131, "idSala": 2},</v>
       </c>
@@ -16798,7 +16797,7 @@
       <c r="G33" s="2">
         <v>26</v>
       </c>
-      <c r="H33" s="11" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023013232, "dia": "QUA", "horaInicio": 10, "duracao":2, "idTurma":20230132, "idSala": 26},</v>
       </c>
@@ -16832,7 +16831,7 @@
       <c r="G34" s="2">
         <v>3</v>
       </c>
-      <c r="H34" s="11" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023013333, "dia": "SEG", "horaInicio": 8, "duracao":2, "idTurma":20230133, "idSala": 3},</v>
       </c>
@@ -16866,7 +16865,7 @@
       <c r="G35" s="2">
         <v>26</v>
       </c>
-      <c r="H35" s="11" t="str">
+      <c r="H35" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023013434, "dia": "QUA", "horaInicio": 8, "duracao":2, "idTurma":20230134, "idSala": 26},</v>
       </c>
@@ -16900,7 +16899,7 @@
       <c r="G36" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H36" s="11" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023013535, "dia": "TER", "horaInicio": 8, "duracao":2, "idTurma":20230135, "idSala": null},</v>
       </c>
@@ -16934,7 +16933,7 @@
       <c r="G37" s="2">
         <v>20</v>
       </c>
-      <c r="H37" s="11" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023013736, "dia": "QUA", "horaInicio": 8, "duracao":2, "idTurma":20230137, "idSala": 20},</v>
       </c>
@@ -16968,7 +16967,7 @@
       <c r="G38" s="2">
         <v>20</v>
       </c>
-      <c r="H38" s="11" t="str">
+      <c r="H38" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023013737, "dia": "SEG", "horaInicio": 8, "duracao":2, "idTurma":20230137, "idSala": 20},</v>
       </c>
@@ -17002,7 +17001,7 @@
       <c r="G39" s="2">
         <v>3</v>
       </c>
-      <c r="H39" s="11" t="str">
+      <c r="H39" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023013938, "dia": "SEG", "horaInicio": 10, "duracao":2, "idTurma":20230139, "idSala": 3},</v>
       </c>
@@ -17036,7 +17035,7 @@
       <c r="G40" s="2">
         <v>3</v>
       </c>
-      <c r="H40" s="11" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023013939, "dia": "TER", "horaInicio": 16, "duracao":2, "idTurma":20230139, "idSala": 3},</v>
       </c>
@@ -17070,7 +17069,7 @@
       <c r="G41" s="2">
         <v>2</v>
       </c>
-      <c r="H41" s="11" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023014140, "dia": "QUA", "horaInicio": 16, "duracao":2, "idTurma":20230141, "idSala": 2},</v>
       </c>
@@ -17104,7 +17103,7 @@
       <c r="G42" s="2">
         <v>3</v>
       </c>
-      <c r="H42" s="11" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023014141, "dia": "SEG", "horaInicio": 18, "duracao":2, "idTurma":20230141, "idSala": 3},</v>
       </c>
@@ -17138,7 +17137,7 @@
       <c r="G43" s="2">
         <v>2</v>
       </c>
-      <c r="H43" s="11" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023014342, "dia": "SEX", "horaInicio": 8, "duracao":2, "idTurma":20230143, "idSala": 2},</v>
       </c>
@@ -17172,7 +17171,7 @@
       <c r="G44" s="2">
         <v>2</v>
       </c>
-      <c r="H44" s="11" t="str">
+      <c r="H44" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023014343, "dia": "TER", "horaInicio": 14, "duracao":2, "idTurma":20230143, "idSala": 2},</v>
       </c>
@@ -17206,7 +17205,7 @@
       <c r="G45" s="2">
         <v>2</v>
       </c>
-      <c r="H45" s="11" t="str">
+      <c r="H45" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023014544, "dia": "SEX", "horaInicio": 8, "duracao":2, "idTurma":20230145, "idSala": 2},</v>
       </c>
@@ -17240,7 +17239,7 @@
       <c r="G46" s="2">
         <v>23</v>
       </c>
-      <c r="H46" s="11" t="str">
+      <c r="H46" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023014545, "dia": "TER", "horaInicio": 16, "duracao":2, "idTurma":20230145, "idSala": 23},</v>
       </c>
@@ -17274,7 +17273,7 @@
       <c r="G47" s="2">
         <v>2</v>
       </c>
-      <c r="H47" s="11" t="str">
+      <c r="H47" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023014646, "dia": "SEG", "horaInicio": 6, "duracao":2, "idTurma":20230146, "idSala": 2},</v>
       </c>
@@ -17308,7 +17307,7 @@
       <c r="G48" s="2">
         <v>2</v>
       </c>
-      <c r="H48" s="11" t="str">
+      <c r="H48" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023014847, "dia": "QUI", "horaInicio": 8, "duracao":2, "idTurma":20230148, "idSala": 2},</v>
       </c>
@@ -17342,7 +17341,7 @@
       <c r="G49" s="2">
         <v>2</v>
       </c>
-      <c r="H49" s="11" t="str">
+      <c r="H49" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023014848, "dia": "QUA", "horaInicio": 14, "duracao":2, "idTurma":20230148, "idSala": 2},</v>
       </c>
@@ -17376,7 +17375,7 @@
       <c r="G50" s="2">
         <v>10</v>
       </c>
-      <c r="H50" s="11" t="str">
+      <c r="H50" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023015049, "dia": "QUA", "horaInicio": 16, "duracao":2, "idTurma":20230150, "idSala": 10},</v>
       </c>
@@ -17410,7 +17409,7 @@
       <c r="G51" s="2">
         <v>2</v>
       </c>
-      <c r="H51" s="11" t="str">
+      <c r="H51" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023015050, "dia": "SEG", "horaInicio": 16, "duracao":2, "idTurma":20230150, "idSala": 2},</v>
       </c>
@@ -17444,7 +17443,7 @@
       <c r="G52" s="2">
         <v>8</v>
       </c>
-      <c r="H52" s="11" t="str">
+      <c r="H52" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023015251, "dia": "QUA", "horaInicio": 8, "duracao":2, "idTurma":20230152, "idSala": 8},</v>
       </c>
@@ -17478,7 +17477,7 @@
       <c r="G53" s="2">
         <v>2</v>
       </c>
-      <c r="H53" s="11" t="str">
+      <c r="H53" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023015252, "dia": "SEG", "horaInicio": 10, "duracao":2, "idTurma":20230152, "idSala": 2},</v>
       </c>
@@ -17512,7 +17511,7 @@
       <c r="G54" s="2">
         <v>10</v>
       </c>
-      <c r="H54" s="11" t="str">
+      <c r="H54" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023015353, "dia": "SEX", "horaInicio": 10, "duracao":2, "idTurma":20230153, "idSala": 10},</v>
       </c>
@@ -17546,7 +17545,7 @@
       <c r="G55" s="2">
         <v>2</v>
       </c>
-      <c r="H55" s="11" t="str">
+      <c r="H55" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023015454, "dia": "QUI", "horaInicio": 8, "duracao":2, "idTurma":20230154, "idSala": 2},</v>
       </c>
@@ -17580,7 +17579,7 @@
       <c r="G56" s="2">
         <v>15</v>
       </c>
-      <c r="H56" s="11" t="str">
+      <c r="H56" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023015555, "dia": "QUA", "horaInicio": 10, "duracao":2, "idTurma":20230155, "idSala": 15},</v>
       </c>
@@ -17614,7 +17613,7 @@
       <c r="G57" s="2">
         <v>2</v>
       </c>
-      <c r="H57" s="11" t="str">
+      <c r="H57" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023015756, "dia": "SEX", "horaInicio": 14, "duracao":2, "idTurma":20230157, "idSala": 2},</v>
       </c>
@@ -17648,7 +17647,7 @@
       <c r="G58" s="2">
         <v>26</v>
       </c>
-      <c r="H58" s="11" t="str">
+      <c r="H58" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023015757, "dia": "SEX", "horaInicio": 16, "duracao":2, "idTurma":20230157, "idSala": 26},</v>
       </c>
@@ -17682,7 +17681,7 @@
       <c r="G59" s="2">
         <v>3</v>
       </c>
-      <c r="H59" s="11" t="str">
+      <c r="H59" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023015958, "dia": "SEG", "horaInicio": 14, "duracao":2, "idTurma":20230159, "idSala": 3},</v>
       </c>
@@ -17716,7 +17715,7 @@
       <c r="G60" s="2">
         <v>3</v>
       </c>
-      <c r="H60" s="11" t="str">
+      <c r="H60" t="str">
         <f t="shared" si="1"/>
         <v>{"id": 2023015959, "dia": "QUI", "horaInicio": 16, "duracao":2, "idTurma":20230159, "idSala": 3},</v>
       </c>
@@ -17740,10 +17739,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C9C005-B686-49AD-995E-81E25E4F429B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H61"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17753,7 +17753,7 @@
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="90.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
@@ -17776,7 +17776,7 @@
       <c r="E1" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>290</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -17792,7 +17792,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17809,7 +17809,7 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>20220201</v>
       </c>
       <c r="G2" t="s">
@@ -17826,7 +17826,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17843,7 +17843,7 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>20220201</v>
       </c>
       <c r="G3" t="s">
@@ -17860,7 +17860,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17877,7 +17877,7 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>20220201</v>
       </c>
       <c r="G4" t="s">
@@ -17894,7 +17894,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17911,7 +17911,7 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>20220201</v>
       </c>
       <c r="G5" t="s">
@@ -17930,30 +17930,30 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022020205</v>
+        <f>_xlfn.CONCAT(F6,IF(A6&lt;10,_xlfn.CONCAT(0,A6),A6))</f>
+        <v>2022020613</v>
       </c>
       <c r="C6" t="s">
         <v>97</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="14">
-        <v>20220202</v>
+      <c r="F6" s="13">
+        <v>20220206</v>
       </c>
       <c r="G6" t="s">
         <v>273</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022020205, "dia": "SEG", "horaInicio": 16, "duracao":2, "idTurma":20220202, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B6,$C$1,C6,$D$1,D6,$E$1,E6,$F$1,F6,$G$1,G6,"},")</f>
+        <v>{"id": 2022020613, "dia": "SEG", "horaInicio": 8, "duracao":2, "idTurma":20220206, "idSala": null},</v>
       </c>
       <c r="J6" t="s">
         <v>210</v>
@@ -17962,12 +17962,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F7,IF(A7&lt;10,_xlfn.CONCAT(0,A7),A7))</f>
         <v>2022020206</v>
       </c>
       <c r="C7" t="s">
@@ -17979,14 +17979,14 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>20220202</v>
       </c>
       <c r="G7" t="s">
         <v>273</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B7,$C$1,C7,$D$1,D7,$E$1,E7,$F$1,F7,$G$1,G7,"},")</f>
         <v>{"id": 2022020206, "dia": "TER", "horaInicio": 16, "duracao":2, "idTurma":20220202, "idSala": null},</v>
       </c>
       <c r="J7" t="s">
@@ -17996,12 +17996,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F8,IF(A8&lt;10,_xlfn.CONCAT(0,A8),A8))</f>
         <v>2022020207</v>
       </c>
       <c r="C8" t="s">
@@ -18013,14 +18013,14 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>20220202</v>
       </c>
       <c r="G8" t="s">
         <v>273</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B8,$C$1,C8,$D$1,D8,$E$1,E8,$F$1,F8,$G$1,G8,"},")</f>
         <v>{"id": 2022020207, "dia": "QUI", "horaInicio": 16, "duracao":2, "idTurma":20220202, "idSala": null},</v>
       </c>
       <c r="J8" t="s">
@@ -18030,12 +18030,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F9,IF(A9&lt;10,_xlfn.CONCAT(0,A9),A9))</f>
         <v>2022020308</v>
       </c>
       <c r="C9" t="s">
@@ -18047,14 +18047,14 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>20220203</v>
       </c>
       <c r="G9" t="s">
         <v>273</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B9,$C$1,C9,$D$1,D9,$E$1,E9,$F$1,F9,$G$1,G9,"},")</f>
         <v>{"id": 2022020308, "dia": "TER", "horaInicio": 14, "duracao":2, "idTurma":20220203, "idSala": null},</v>
       </c>
       <c r="J9" t="s">
@@ -18064,12 +18064,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F10,IF(A10&lt;10,_xlfn.CONCAT(0,A10),A10))</f>
         <v>2022020309</v>
       </c>
       <c r="C10" t="s">
@@ -18081,14 +18081,14 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>20220203</v>
       </c>
       <c r="G10" t="s">
         <v>273</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B10,$C$1,C10,$D$1,D10,$E$1,E10,$F$1,F10,$G$1,G10,"},")</f>
         <v>{"id": 2022020309, "dia": "QUI", "horaInicio": 14, "duracao":2, "idTurma":20220203, "idSala": null},</v>
       </c>
       <c r="J10" t="s">
@@ -18098,12 +18098,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F11,IF(A11&lt;10,_xlfn.CONCAT(0,A11),A11))</f>
         <v>2022020410</v>
       </c>
       <c r="C11" t="s">
@@ -18115,14 +18115,14 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>20220204</v>
       </c>
       <c r="G11" t="s">
         <v>273</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B11,$C$1,C11,$D$1,D11,$E$1,E11,$F$1,F11,$G$1,G11,"},")</f>
         <v>{"id": 2022020410, "dia": "TER", "horaInicio": 8, "duracao":2, "idTurma":20220204, "idSala": null},</v>
       </c>
       <c r="J11" t="s">
@@ -18132,12 +18132,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F12,IF(A12&lt;10,_xlfn.CONCAT(0,A12),A12))</f>
         <v>2022020411</v>
       </c>
       <c r="C12" t="s">
@@ -18149,14 +18149,14 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>20220204</v>
       </c>
       <c r="G12" t="s">
         <v>273</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B12,$C$1,C12,$D$1,D12,$E$1,E12,$F$1,F12,$G$1,G12,"},")</f>
         <v>{"id": 2022020411, "dia": "QUI", "horaInicio": 8, "duracao":2, "idTurma":20220204, "idSala": null},</v>
       </c>
       <c r="J12" t="s">
@@ -18166,12 +18166,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F13,IF(A13&lt;10,_xlfn.CONCAT(0,A13),A13))</f>
         <v>2022020412</v>
       </c>
       <c r="C13" t="s">
@@ -18183,14 +18183,14 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>20220204</v>
       </c>
       <c r="G13" t="s">
         <v>273</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B13,$C$1,C13,$D$1,D13,$E$1,E13,$F$1,F13,$G$1,G13,"},")</f>
         <v>{"id": 2022020412, "dia": "QUI", "horaInicio": 10, "duracao":2, "idTurma":20220204, "idSala": null},</v>
       </c>
       <c r="J13" t="s">
@@ -18202,11 +18202,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022020613</v>
+        <f>_xlfn.CONCAT(F14,IF(A14&lt;10,_xlfn.CONCAT(0,A14),A14))</f>
+        <v>2023023058</v>
       </c>
       <c r="C14" t="s">
         <v>97</v>
@@ -18218,14 +18218,14 @@
         <v>2</v>
       </c>
       <c r="F14" s="14">
-        <v>20220206</v>
+        <v>20230230</v>
       </c>
       <c r="G14" t="s">
         <v>273</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022020613, "dia": "SEG", "horaInicio": 8, "duracao":2, "idTurma":20220206, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B14,$C$1,C14,$D$1,D14,$E$1,E14,$F$1,F14,$G$1,G14,"},")</f>
+        <v>{"id": 2023023058, "dia": "SEG", "horaInicio": 8, "duracao":2, "idTurma":20230230, "idSala": null},</v>
       </c>
       <c r="J14" t="s">
         <v>204</v>
@@ -18239,7 +18239,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F15,IF(A15&lt;10,_xlfn.CONCAT(0,A15),A15))</f>
         <v>2022020614</v>
       </c>
       <c r="C15" t="s">
@@ -18251,14 +18251,14 @@
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>20220206</v>
       </c>
       <c r="G15" t="s">
         <v>273</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B15,$C$1,C15,$D$1,D15,$E$1,E15,$F$1,F15,$G$1,G15,"},")</f>
         <v>{"id": 2022020614, "dia": "QUA", "horaInicio": 8, "duracao":2, "idTurma":20220206, "idSala": null},</v>
       </c>
       <c r="J15" t="s">
@@ -18270,30 +18270,30 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022020815</v>
+        <f>_xlfn.CONCAT(F16,IF(A16&lt;10,_xlfn.CONCAT(0,A16),A16))</f>
+        <v>2023023052</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" s="14">
-        <v>20220208</v>
+        <v>20230230</v>
       </c>
       <c r="G16" t="s">
         <v>273</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022020815, "dia": "SEG", "horaInicio": 16, "duracao":2, "idTurma":20220208, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B16,$C$1,C16,$D$1,D16,$E$1,E16,$F$1,F16,$G$1,G16,"},")</f>
+        <v>{"id": 2023023052, "dia": "QUA", "horaInicio": 8, "duracao":2, "idTurma":20230230, "idSala": null},</v>
       </c>
       <c r="J16" t="s">
         <v>211</v>
@@ -18302,12 +18302,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F17,IF(A17&lt;10,_xlfn.CONCAT(0,A17),A17))</f>
         <v>2022020816</v>
       </c>
       <c r="C17" t="s">
@@ -18319,14 +18319,14 @@
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>20220208</v>
       </c>
       <c r="G17" t="s">
         <v>273</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B17,$C$1,C17,$D$1,D17,$E$1,E17,$F$1,F17,$G$1,G17,"},")</f>
         <v>{"id": 2022020816, "dia": "TER", "horaInicio": 16, "duracao":2, "idTurma":20220208, "idSala": null},</v>
       </c>
       <c r="J17" t="s">
@@ -18338,30 +18338,30 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022020817</v>
+        <f>_xlfn.CONCAT(F18,IF(A18&lt;10,_xlfn.CONCAT(0,A18),A18))</f>
+        <v>2022021020</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="14">
-        <v>20220208</v>
+      <c r="F18" s="13">
+        <v>20220210</v>
       </c>
       <c r="G18" t="s">
         <v>273</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022020817, "dia": "QUA", "horaInicio": 16, "duracao":2, "idTurma":20220208, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B18,$C$1,C18,$D$1,D18,$E$1,E18,$F$1,F18,$G$1,G18,"},")</f>
+        <v>{"id": 2022021020, "dia": "SEG", "horaInicio": 10, "duracao":2, "idTurma":20220210, "idSala": null},</v>
       </c>
       <c r="J18" t="s">
         <v>211</v>
@@ -18370,12 +18370,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F19,IF(A19&lt;10,_xlfn.CONCAT(0,A19),A19))</f>
         <v>2022020918</v>
       </c>
       <c r="C19" t="s">
@@ -18387,14 +18387,14 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>20220209</v>
       </c>
       <c r="G19" t="s">
         <v>273</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B19,$C$1,C19,$D$1,D19,$E$1,E19,$F$1,F19,$G$1,G19,"},")</f>
         <v>{"id": 2022020918, "dia": "SEX", "horaInicio": 8, "duracao":2, "idTurma":20220209, "idSala": null},</v>
       </c>
       <c r="J19" t="s">
@@ -18404,12 +18404,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F20,IF(A20&lt;10,_xlfn.CONCAT(0,A20),A20))</f>
         <v>2022020919</v>
       </c>
       <c r="C20" t="s">
@@ -18421,14 +18421,14 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>20220209</v>
       </c>
       <c r="G20" t="s">
         <v>273</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B20,$C$1,C20,$D$1,D20,$E$1,E20,$F$1,F20,$G$1,G20,"},")</f>
         <v>{"id": 2022020919, "dia": "SEX", "horaInicio": 10, "duracao":2, "idTurma":20220209, "idSala": null},</v>
       </c>
       <c r="J20" t="s">
@@ -18440,11 +18440,11 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022021020</v>
+        <f>_xlfn.CONCAT(F21,IF(A21&lt;10,_xlfn.CONCAT(0,A21),A21))</f>
+        <v>2022021940</v>
       </c>
       <c r="C21" t="s">
         <v>97</v>
@@ -18455,15 +18455,15 @@
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="14">
-        <v>20220210</v>
+      <c r="F21" s="13">
+        <v>20220219</v>
       </c>
       <c r="G21" t="s">
         <v>273</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022021020, "dia": "SEG", "horaInicio": 10, "duracao":2, "idTurma":20220210, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B21,$C$1,C21,$D$1,D21,$E$1,E21,$F$1,F21,$G$1,G21,"},")</f>
+        <v>{"id": 2022021940, "dia": "SEG", "horaInicio": 10, "duracao":2, "idTurma":20220219, "idSala": null},</v>
       </c>
       <c r="J21" t="s">
         <v>206</v>
@@ -18477,7 +18477,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F22,IF(A22&lt;10,_xlfn.CONCAT(0,A22),A22))</f>
         <v>2022021021</v>
       </c>
       <c r="C22" t="s">
@@ -18489,14 +18489,14 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <v>20220210</v>
       </c>
       <c r="G22" t="s">
         <v>273</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B22,$C$1,C22,$D$1,D22,$E$1,E22,$F$1,F22,$G$1,G22,"},")</f>
         <v>{"id": 2022021021, "dia": "QUA", "horaInicio": 10, "duracao":2, "idTurma":20220210, "idSala": null},</v>
       </c>
       <c r="J22" t="s">
@@ -18506,12 +18506,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F23,IF(A23&lt;10,_xlfn.CONCAT(0,A23),A23))</f>
         <v>2022021122</v>
       </c>
       <c r="C23" t="s">
@@ -18523,14 +18523,14 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <v>20220211</v>
       </c>
       <c r="G23" t="s">
         <v>273</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B23,$C$1,C23,$D$1,D23,$E$1,E23,$F$1,F23,$G$1,G23,"},")</f>
         <v>{"id": 2022021122, "dia": "QUI", "horaInicio": 18, "duracao":2, "idTurma":20220211, "idSala": null},</v>
       </c>
       <c r="J23" t="s">
@@ -18542,30 +18542,30 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022021123</v>
+        <f>_xlfn.CONCAT(F24,IF(A24&lt;10,_xlfn.CONCAT(0,A24),A24))</f>
+        <v>2022021533</v>
       </c>
       <c r="C24" t="s">
         <v>98</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="14">
-        <v>20220211</v>
+      <c r="F24" s="13">
+        <v>20220215</v>
       </c>
       <c r="G24" t="s">
         <v>273</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022021123, "dia": "QUA", "horaInicio": 14, "duracao":2, "idTurma":20220211, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B24,$C$1,C24,$D$1,D24,$E$1,E24,$F$1,F24,$G$1,G24,"},")</f>
+        <v>{"id": 2022021533, "dia": "QUA", "horaInicio": 10, "duracao":2, "idTurma":20220215, "idSala": null},</v>
       </c>
       <c r="J24" t="s">
         <v>224</v>
@@ -18574,12 +18574,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F25,IF(A25&lt;10,_xlfn.CONCAT(0,A25),A25))</f>
         <v>2022021124</v>
       </c>
       <c r="C25" t="s">
@@ -18591,14 +18591,14 @@
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <v>20220211</v>
       </c>
       <c r="G25" t="s">
         <v>273</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B25,$C$1,C25,$D$1,D25,$E$1,E25,$F$1,F25,$G$1,G25,"},")</f>
         <v>{"id": 2022021124, "dia": "SEX", "horaInicio": 14, "duracao":2, "idTurma":20220211, "idSala": null},</v>
       </c>
       <c r="J25" t="s">
@@ -18608,12 +18608,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F26,IF(A26&lt;10,_xlfn.CONCAT(0,A26),A26))</f>
         <v>2022021225</v>
       </c>
       <c r="C26" t="s">
@@ -18625,14 +18625,14 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>20220212</v>
       </c>
       <c r="G26" t="s">
         <v>273</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B26,$C$1,C26,$D$1,D26,$E$1,E26,$F$1,F26,$G$1,G26,"},")</f>
         <v>{"id": 2022021225, "dia": "TER", "horaInicio": 16, "duracao":2, "idTurma":20220212, "idSala": null},</v>
       </c>
       <c r="J26" t="s">
@@ -18642,12 +18642,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F27,IF(A27&lt;10,_xlfn.CONCAT(0,A27),A27))</f>
         <v>2022021226</v>
       </c>
       <c r="C27" t="s">
@@ -18659,14 +18659,14 @@
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <v>20220212</v>
       </c>
       <c r="G27" t="s">
         <v>273</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B27,$C$1,C27,$D$1,D27,$E$1,E27,$F$1,F27,$G$1,G27,"},")</f>
         <v>{"id": 2022021226, "dia": "QUI", "horaInicio": 16, "duracao":2, "idTurma":20220212, "idSala": null},</v>
       </c>
       <c r="J27" t="s">
@@ -18678,30 +18678,30 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022021327</v>
+        <f>_xlfn.CONCAT(F28,IF(A28&lt;10,_xlfn.CONCAT(0,A28),A28))</f>
+        <v>2022021941</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="14">
-        <v>20220213</v>
+      <c r="F28" s="13">
+        <v>20220219</v>
       </c>
       <c r="G28" t="s">
         <v>273</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022021327, "dia": "SEG", "horaInicio": 14, "duracao":2, "idTurma":20220213, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B28,$C$1,C28,$D$1,D28,$E$1,E28,$F$1,F28,$G$1,G28,"},")</f>
+        <v>{"id": 2022021941, "dia": "QUA", "horaInicio": 10, "duracao":2, "idTurma":20220219, "idSala": null},</v>
       </c>
       <c r="J28" t="s">
         <v>208</v>
@@ -18712,11 +18712,11 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022021328</v>
+        <f>_xlfn.CONCAT(F29,IF(A29&lt;10,_xlfn.CONCAT(0,A29),A29))</f>
+        <v>2022021123</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
@@ -18727,15 +18727,15 @@
       <c r="E29">
         <v>2</v>
       </c>
-      <c r="F29" s="14">
-        <v>20220213</v>
+      <c r="F29" s="13">
+        <v>20220211</v>
       </c>
       <c r="G29" t="s">
         <v>273</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022021328, "dia": "QUA", "horaInicio": 14, "duracao":2, "idTurma":20220213, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B29,$C$1,C29,$D$1,D29,$E$1,E29,$F$1,F29,$G$1,G29,"},")</f>
+        <v>{"id": 2022021123, "dia": "QUA", "horaInicio": 14, "duracao":2, "idTurma":20220211, "idSala": null},</v>
       </c>
       <c r="J29" t="s">
         <v>208</v>
@@ -18744,12 +18744,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F30,IF(A30&lt;10,_xlfn.CONCAT(0,A30),A30))</f>
         <v>2022021329</v>
       </c>
       <c r="C30" t="s">
@@ -18761,14 +18761,14 @@
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="13">
         <v>20220213</v>
       </c>
       <c r="G30" t="s">
         <v>273</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B30,$C$1,C30,$D$1,D30,$E$1,E30,$F$1,F30,$G$1,G30,"},")</f>
         <v>{"id": 2022021329, "dia": "TER", "horaInicio": 14, "duracao":2, "idTurma":20220213, "idSala": null},</v>
       </c>
       <c r="J30" t="s">
@@ -18778,12 +18778,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F31,IF(A31&lt;10,_xlfn.CONCAT(0,A31),A31))</f>
         <v>2022021330</v>
       </c>
       <c r="C31" t="s">
@@ -18795,14 +18795,14 @@
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <v>20220213</v>
       </c>
       <c r="G31" t="s">
         <v>273</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B31,$C$1,C31,$D$1,D31,$E$1,E31,$F$1,F31,$G$1,G31,"},")</f>
         <v>{"id": 2022021330, "dia": "QUI", "horaInicio": 14, "duracao":2, "idTurma":20220213, "idSala": null},</v>
       </c>
       <c r="J31" t="s">
@@ -18814,30 +18814,30 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022021431</v>
+        <f>_xlfn.CONCAT(F32,IF(A32&lt;10,_xlfn.CONCAT(0,A32),A32))</f>
+        <v>2022021327</v>
       </c>
       <c r="C32" t="s">
         <v>97</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" s="14">
-        <v>20220214</v>
+      <c r="F32" s="13">
+        <v>20220213</v>
       </c>
       <c r="G32" t="s">
         <v>273</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022021431, "dia": "SEG", "horaInicio": 18, "duracao":2, "idTurma":20220214, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B32,$C$1,C32,$D$1,D32,$E$1,E32,$F$1,F32,$G$1,G32,"},")</f>
+        <v>{"id": 2022021327, "dia": "SEG", "horaInicio": 14, "duracao":2, "idTurma":20220213, "idSala": null},</v>
       </c>
       <c r="J32" t="s">
         <v>213</v>
@@ -18848,30 +18848,30 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022021432</v>
+        <f>_xlfn.CONCAT(F33,IF(A33&lt;10,_xlfn.CONCAT(0,A33),A33))</f>
+        <v>2022021328</v>
       </c>
       <c r="C33" t="s">
         <v>98</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" s="14">
-        <v>20220214</v>
+      <c r="F33" s="13">
+        <v>20220213</v>
       </c>
       <c r="G33" t="s">
         <v>273</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022021432, "dia": "QUA", "horaInicio": 18, "duracao":2, "idTurma":20220214, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B33,$C$1,C33,$D$1,D33,$E$1,E33,$F$1,F33,$G$1,G33,"},")</f>
+        <v>{"id": 2022021328, "dia": "QUA", "horaInicio": 14, "duracao":2, "idTurma":20220213, "idSala": null},</v>
       </c>
       <c r="J33" t="s">
         <v>213</v>
@@ -18882,30 +18882,30 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022021533</v>
+        <f>_xlfn.CONCAT(F34,IF(A34&lt;10,_xlfn.CONCAT(0,A34),A34))</f>
+        <v>2022022246</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="14">
-        <v>20220215</v>
+      <c r="F34" s="13">
+        <v>20220222</v>
       </c>
       <c r="G34" t="s">
         <v>273</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022021533, "dia": "QUA", "horaInicio": 10, "duracao":2, "idTurma":20220215, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B34,$C$1,C34,$D$1,D34,$E$1,E34,$F$1,F34,$G$1,G34,"},")</f>
+        <v>{"id": 2022022246, "dia": "SEG", "horaInicio": 14, "duracao":2, "idTurma":20220222, "idSala": null},</v>
       </c>
       <c r="J34" t="s">
         <v>223</v>
@@ -18914,12 +18914,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F35,IF(A35&lt;10,_xlfn.CONCAT(0,A35),A35))</f>
         <v>2022021534</v>
       </c>
       <c r="C35" t="s">
@@ -18931,14 +18931,14 @@
       <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="13">
         <v>20220215</v>
       </c>
       <c r="G35" t="s">
         <v>273</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B35,$C$1,C35,$D$1,D35,$E$1,E35,$F$1,F35,$G$1,G35,"},")</f>
         <v>{"id": 2022021534, "dia": "SEX", "horaInicio": 10, "duracao":2, "idTurma":20220215, "idSala": null},</v>
       </c>
       <c r="J35" t="s">
@@ -18950,30 +18950,30 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022021635</v>
+        <f>_xlfn.CONCAT(F36,IF(A36&lt;10,_xlfn.CONCAT(0,A36),A36))</f>
+        <v>2022022247</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
-      <c r="F36" s="14">
-        <v>20220216</v>
+      <c r="F36" s="13">
+        <v>20220222</v>
       </c>
       <c r="G36" t="s">
         <v>273</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022021635, "dia": "SEG", "horaInicio": 16, "duracao":2, "idTurma":20220216, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B36,$C$1,C36,$D$1,D36,$E$1,E36,$F$1,F36,$G$1,G36,"},")</f>
+        <v>{"id": 2022022247, "dia": "QUA", "horaInicio": 14, "duracao":2, "idTurma":20220222, "idSala": null},</v>
       </c>
       <c r="J36" t="s">
         <v>212</v>
@@ -18984,11 +18984,11 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022021636</v>
+        <f>_xlfn.CONCAT(F37,IF(A37&lt;10,_xlfn.CONCAT(0,A37),A37))</f>
+        <v>2022020817</v>
       </c>
       <c r="C37" t="s">
         <v>98</v>
@@ -18999,15 +18999,15 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="14">
-        <v>20220216</v>
+      <c r="F37" s="13">
+        <v>20220208</v>
       </c>
       <c r="G37" t="s">
         <v>273</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022021636, "dia": "QUA", "horaInicio": 16, "duracao":2, "idTurma":20220216, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B37,$C$1,C37,$D$1,D37,$E$1,E37,$F$1,F37,$G$1,G37,"},")</f>
+        <v>{"id": 2022020817, "dia": "QUA", "horaInicio": 16, "duracao":2, "idTurma":20220208, "idSala": null},</v>
       </c>
       <c r="J37" t="s">
         <v>212</v>
@@ -19016,12 +19016,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F38,IF(A38&lt;10,_xlfn.CONCAT(0,A38),A38))</f>
         <v>2022021737</v>
       </c>
       <c r="C38" t="s">
@@ -19033,14 +19033,14 @@
       <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="13">
         <v>20220217</v>
       </c>
       <c r="G38" t="s">
         <v>273</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B38,$C$1,C38,$D$1,D38,$E$1,E38,$F$1,F38,$G$1,G38,"},")</f>
         <v>{"id": 2022021737, "dia": "TER", "horaInicio": 10, "duracao":2, "idTurma":20220217, "idSala": null},</v>
       </c>
       <c r="J38" t="s">
@@ -19050,12 +19050,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F39,IF(A39&lt;10,_xlfn.CONCAT(0,A39),A39))</f>
         <v>2022021738</v>
       </c>
       <c r="C39" t="s">
@@ -19067,14 +19067,14 @@
       <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <v>20220217</v>
       </c>
       <c r="G39" t="s">
         <v>273</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B39,$C$1,C39,$D$1,D39,$E$1,E39,$F$1,F39,$G$1,G39,"},")</f>
         <v>{"id": 2022021738, "dia": "QUI", "horaInicio": 10, "duracao":2, "idTurma":20220217, "idSala": null},</v>
       </c>
       <c r="J39" t="s">
@@ -19084,12 +19084,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F40,IF(A40&lt;10,_xlfn.CONCAT(0,A40),A40))</f>
         <v>2022021839</v>
       </c>
       <c r="C40" t="s">
@@ -19101,14 +19101,14 @@
       <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="13">
         <v>20220218</v>
       </c>
       <c r="G40" t="s">
         <v>273</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B40,$C$1,C40,$D$1,D40,$E$1,E40,$F$1,F40,$G$1,G40,"},")</f>
         <v>{"id": 2022021839, "dia": "SEX", "horaInicio": 8, "duracao":2, "idTurma":20220218, "idSala": null},</v>
       </c>
       <c r="J40" t="s">
@@ -19120,30 +19120,30 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022021940</v>
+        <f>_xlfn.CONCAT(F41,IF(A41&lt;10,_xlfn.CONCAT(0,A41),A41))</f>
+        <v>2022020205</v>
       </c>
       <c r="C41" t="s">
         <v>97</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" s="14">
-        <v>20220219</v>
+      <c r="F41" s="13">
+        <v>20220202</v>
       </c>
       <c r="G41" t="s">
         <v>273</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022021940, "dia": "SEG", "horaInicio": 10, "duracao":2, "idTurma":20220219, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B41,$C$1,C41,$D$1,D41,$E$1,E41,$F$1,F41,$G$1,G41,"},")</f>
+        <v>{"id": 2022020205, "dia": "SEG", "horaInicio": 16, "duracao":2, "idTurma":20220202, "idSala": null},</v>
       </c>
       <c r="J41" t="s">
         <v>207</v>
@@ -19154,30 +19154,30 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022021941</v>
+        <f>_xlfn.CONCAT(F42,IF(A42&lt;10,_xlfn.CONCAT(0,A42),A42))</f>
+        <v>2022021636</v>
       </c>
       <c r="C42" t="s">
         <v>98</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42" s="14">
-        <v>20220219</v>
+      <c r="F42" s="13">
+        <v>20220216</v>
       </c>
       <c r="G42" t="s">
         <v>273</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022021941, "dia": "QUA", "horaInicio": 10, "duracao":2, "idTurma":20220219, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B42,$C$1,C42,$D$1,D42,$E$1,E42,$F$1,F42,$G$1,G42,"},")</f>
+        <v>{"id": 2022021636, "dia": "QUA", "horaInicio": 16, "duracao":2, "idTurma":20220216, "idSala": null},</v>
       </c>
       <c r="J42" t="s">
         <v>207</v>
@@ -19186,12 +19186,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F43,IF(A43&lt;10,_xlfn.CONCAT(0,A43),A43))</f>
         <v>2022022042</v>
       </c>
       <c r="C43" t="s">
@@ -19203,14 +19203,14 @@
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="2">
         <v>20220220</v>
       </c>
       <c r="G43" t="s">
         <v>273</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B43,$C$1,C43,$D$1,D43,$E$1,E43,$F$1,F43,$G$1,G43,"},")</f>
         <v>{"id": 2022022042, "dia": "TER", "horaInicio": 10, "duracao":2, "idTurma":20220220, "idSala": null},</v>
       </c>
       <c r="J43" t="s">
@@ -19220,12 +19220,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F44,IF(A44&lt;10,_xlfn.CONCAT(0,A44),A44))</f>
         <v>2022022043</v>
       </c>
       <c r="C44" t="s">
@@ -19237,14 +19237,14 @@
       <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="2">
         <v>20220220</v>
       </c>
       <c r="G44" t="s">
         <v>273</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B44,$C$1,C44,$D$1,D44,$E$1,E44,$F$1,F44,$G$1,G44,"},")</f>
         <v>{"id": 2022022043, "dia": "QUI", "horaInicio": 10, "duracao":2, "idTurma":20220220, "idSala": null},</v>
       </c>
       <c r="J44" t="s">
@@ -19256,14 +19256,14 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022022144</v>
+        <f>_xlfn.CONCAT(F45,IF(A45&lt;10,_xlfn.CONCAT(0,A45),A45))</f>
+        <v>2022020815</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45">
         <v>16</v>
@@ -19271,15 +19271,15 @@
       <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45" s="14">
-        <v>20220221</v>
+      <c r="F45" s="13">
+        <v>20220208</v>
       </c>
       <c r="G45" t="s">
         <v>273</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022022144, "dia": "QUA", "horaInicio": 16, "duracao":2, "idTurma":20220221, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B45,$C$1,C45,$D$1,D45,$E$1,E45,$F$1,F45,$G$1,G45,"},")</f>
+        <v>{"id": 2022020815, "dia": "SEG", "horaInicio": 16, "duracao":2, "idTurma":20220208, "idSala": null},</v>
       </c>
       <c r="J45" t="s">
         <v>225</v>
@@ -19288,12 +19288,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F46,IF(A46&lt;10,_xlfn.CONCAT(0,A46),A46))</f>
         <v>2022022145</v>
       </c>
       <c r="C46" t="s">
@@ -19305,14 +19305,14 @@
       <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="13">
         <v>20220221</v>
       </c>
       <c r="G46" t="s">
         <v>273</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B46,$C$1,C46,$D$1,D46,$E$1,E46,$F$1,F46,$G$1,G46,"},")</f>
         <v>{"id": 2022022145, "dia": "SEX", "horaInicio": 16, "duracao":2, "idTurma":20220221, "idSala": null},</v>
       </c>
       <c r="J46" t="s">
@@ -19324,30 +19324,30 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022022246</v>
+        <f>_xlfn.CONCAT(F47,IF(A47&lt;10,_xlfn.CONCAT(0,A47),A47))</f>
+        <v>2022022144</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="14">
-        <v>20220222</v>
+      <c r="F47" s="13">
+        <v>20220221</v>
       </c>
       <c r="G47" t="s">
         <v>273</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022022246, "dia": "SEG", "horaInicio": 14, "duracao":2, "idTurma":20220222, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B47,$C$1,C47,$D$1,D47,$E$1,E47,$F$1,F47,$G$1,G47,"},")</f>
+        <v>{"id": 2022022144, "dia": "QUA", "horaInicio": 16, "duracao":2, "idTurma":20220221, "idSala": null},</v>
       </c>
       <c r="J47" t="s">
         <v>209</v>
@@ -19358,30 +19358,30 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022022247</v>
+        <f>_xlfn.CONCAT(F48,IF(A48&lt;10,_xlfn.CONCAT(0,A48),A48))</f>
+        <v>2022021635</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48" s="14">
-        <v>20220222</v>
+      <c r="F48" s="13">
+        <v>20220216</v>
       </c>
       <c r="G48" t="s">
         <v>273</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022022247, "dia": "QUA", "horaInicio": 14, "duracao":2, "idTurma":20220222, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B48,$C$1,C48,$D$1,D48,$E$1,E48,$F$1,F48,$G$1,G48,"},")</f>
+        <v>{"id": 2022021635, "dia": "SEG", "horaInicio": 16, "duracao":2, "idTurma":20220216, "idSala": null},</v>
       </c>
       <c r="J48" t="s">
         <v>209</v>
@@ -19390,12 +19390,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F49,IF(A49&lt;10,_xlfn.CONCAT(0,A49),A49))</f>
         <v>2022022348</v>
       </c>
       <c r="C49" t="s">
@@ -19407,14 +19407,14 @@
       <c r="E49">
         <v>2</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="13">
         <v>20220223</v>
       </c>
       <c r="G49" t="s">
         <v>273</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B49,$C$1,C49,$D$1,D49,$E$1,E49,$F$1,F49,$G$1,G49,"},")</f>
         <v>{"id": 2022022348, "dia": "TER", "horaInicio": 8, "duracao":2, "idTurma":20220223, "idSala": null},</v>
       </c>
       <c r="J49" t="s">
@@ -19424,12 +19424,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F50,IF(A50&lt;10,_xlfn.CONCAT(0,A50),A50))</f>
         <v>2022022349</v>
       </c>
       <c r="C50" t="s">
@@ -19441,14 +19441,14 @@
       <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="13">
         <v>20220223</v>
       </c>
       <c r="G50" t="s">
         <v>273</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B50,$C$1,C50,$D$1,D50,$E$1,E50,$F$1,F50,$G$1,G50,"},")</f>
         <v>{"id": 2022022349, "dia": "QUI", "horaInicio": 8, "duracao":2, "idTurma":20220223, "idSala": null},</v>
       </c>
       <c r="J50" t="s">
@@ -19458,12 +19458,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F51,IF(A51&lt;10,_xlfn.CONCAT(0,A51),A51))</f>
         <v>2022022450</v>
       </c>
       <c r="C51" t="s">
@@ -19475,14 +19475,14 @@
       <c r="E51">
         <v>2</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="13">
         <v>20220224</v>
       </c>
       <c r="G51" t="s">
         <v>273</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B51,$C$1,C51,$D$1,D51,$E$1,E51,$F$1,F51,$G$1,G51,"},")</f>
         <v>{"id": 2022022450, "dia": "TER", "horaInicio": 14, "duracao":2, "idTurma":20220224, "idSala": null},</v>
       </c>
       <c r="J51" t="s">
@@ -19492,12 +19492,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F52,IF(A52&lt;10,_xlfn.CONCAT(0,A52),A52))</f>
         <v>2022022451</v>
       </c>
       <c r="C52" t="s">
@@ -19509,14 +19509,14 @@
       <c r="E52">
         <v>2</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="13">
         <v>20220224</v>
       </c>
       <c r="G52" t="s">
         <v>273</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B52,$C$1,C52,$D$1,D52,$E$1,E52,$F$1,F52,$G$1,G52,"},")</f>
         <v>{"id": 2022022451, "dia": "SEX", "horaInicio": 10, "duracao":2, "idTurma":20220224, "idSala": null},</v>
       </c>
       <c r="J52" t="s">
@@ -19528,30 +19528,30 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022022652</v>
+        <f>_xlfn.CONCAT(F53,IF(A53&lt;10,_xlfn.CONCAT(0,A53),A53))</f>
+        <v>2022021432</v>
       </c>
       <c r="C53" t="s">
         <v>98</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
-      <c r="F53" s="14">
-        <v>20220226</v>
+      <c r="F53" s="13">
+        <v>20220214</v>
       </c>
       <c r="G53" t="s">
         <v>273</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022022652, "dia": "QUA", "horaInicio": 8, "duracao":2, "idTurma":20220226, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B53,$C$1,C53,$D$1,D53,$E$1,E53,$F$1,F53,$G$1,G53,"},")</f>
+        <v>{"id": 2022021432, "dia": "QUA", "horaInicio": 18, "duracao":2, "idTurma":20220214, "idSala": null},</v>
       </c>
       <c r="J53" t="s">
         <v>222</v>
@@ -19560,12 +19560,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F54,IF(A54&lt;10,_xlfn.CONCAT(0,A54),A54))</f>
         <v>2022022653</v>
       </c>
       <c r="C54" t="s">
@@ -19577,14 +19577,14 @@
       <c r="E54">
         <v>2</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="13">
         <v>20220226</v>
       </c>
       <c r="G54" t="s">
         <v>273</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B54,$C$1,C54,$D$1,D54,$E$1,E54,$F$1,F54,$G$1,G54,"},")</f>
         <v>{"id": 2022022653, "dia": "SEX", "horaInicio": 8, "duracao":2, "idTurma":20220226, "idSala": null},</v>
       </c>
       <c r="J54" t="s">
@@ -19594,12 +19594,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F55,IF(A55&lt;10,_xlfn.CONCAT(0,A55),A55))</f>
         <v>2022022754</v>
       </c>
       <c r="C55" t="s">
@@ -19611,14 +19611,14 @@
       <c r="E55">
         <v>2</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="13">
         <v>20220227</v>
       </c>
       <c r="G55" t="s">
         <v>273</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B55,$C$1,C55,$D$1,D55,$E$1,E55,$F$1,F55,$G$1,G55,"},")</f>
         <v>{"id": 2022022754, "dia": "SEX", "horaInicio": 10, "duracao":2, "idTurma":20220227, "idSala": null},</v>
       </c>
       <c r="J55" t="s">
@@ -19628,12 +19628,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F56,IF(A56&lt;10,_xlfn.CONCAT(0,A56),A56))</f>
         <v>2022022855</v>
       </c>
       <c r="C56" t="s">
@@ -19645,14 +19645,14 @@
       <c r="E56">
         <v>2</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="13">
         <v>20220228</v>
       </c>
       <c r="G56" t="s">
         <v>273</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B56,$C$1,C56,$D$1,D56,$E$1,E56,$F$1,F56,$G$1,G56,"},")</f>
         <v>{"id": 2022022855, "dia": "SEX", "horaInicio": 14, "duracao":2, "idTurma":20220228, "idSala": null},</v>
       </c>
       <c r="J56" t="s">
@@ -19662,12 +19662,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F57,IF(A57&lt;10,_xlfn.CONCAT(0,A57),A57))</f>
         <v>2022022956</v>
       </c>
       <c r="C57" t="s">
@@ -19679,14 +19679,14 @@
       <c r="E57">
         <v>2</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="13">
         <v>20220229</v>
       </c>
       <c r="G57" t="s">
         <v>273</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B57,$C$1,C57,$D$1,D57,$E$1,E57,$F$1,F57,$G$1,G57,"},")</f>
         <v>{"id": 2022022956, "dia": "SEX", "horaInicio": 16, "duracao":2, "idTurma":20220229, "idSala": null},</v>
       </c>
       <c r="J57" t="s">
@@ -19696,12 +19696,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(F58,IF(A58&lt;10,_xlfn.CONCAT(0,A58),A58))</f>
         <v>2022022957</v>
       </c>
       <c r="C58" t="s">
@@ -19713,14 +19713,14 @@
       <c r="E58">
         <v>2</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="2">
         <v>20220229</v>
       </c>
       <c r="G58" t="s">
         <v>273</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT($B$1,B58,$C$1,C58,$D$1,D58,$E$1,E58,$F$1,F58,$G$1,G58,"},")</f>
         <v>{"id": 2022022957, "dia": "TER", "horaInicio": 14, "duracao":2, "idTurma":20220229, "idSala": null},</v>
       </c>
       <c r="J58" t="s">
@@ -19732,30 +19732,30 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022023058</v>
+        <f>_xlfn.CONCAT(F59,IF(A59&lt;10,_xlfn.CONCAT(0,A59),A59))</f>
+        <v>2022021431</v>
       </c>
       <c r="C59" t="s">
         <v>97</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
-      <c r="F59" s="14">
-        <v>20220230</v>
+      <c r="F59" s="13">
+        <v>20220214</v>
       </c>
       <c r="G59" t="s">
         <v>273</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="1"/>
-        <v>{"id": 2022023058, "dia": "SEG", "horaInicio": 8, "duracao":2, "idTurma":20220230, "idSala": null},</v>
+        <f>_xlfn.CONCAT($B$1,B59,$C$1,C59,$D$1,D59,$E$1,E59,$F$1,F59,$G$1,G59,"},")</f>
+        <v>{"id": 2022021431, "dia": "SEG", "horaInicio": 18, "duracao":2, "idTurma":20220214, "idSala": null},</v>
       </c>
       <c r="J59" t="s">
         <v>205</v>
@@ -19764,7 +19764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -19781,7 +19781,7 @@
       <c r="E60">
         <v>2</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="13">
         <v>20220230</v>
       </c>
       <c r="G60" t="s">
@@ -19798,7 +19798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -19815,7 +19815,7 @@
       <c r="E61">
         <v>2</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="2">
         <v>20220230</v>
       </c>
       <c r="G61" t="s">
@@ -19833,9 +19833,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{16C9C005-B686-49AD-995E-81E25E4F429B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H61">
-      <sortCondition ref="F1"/>
+  <autoFilter ref="A1:H61" xr:uid="{16C9C005-B686-49AD-995E-81E25E4F429B}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="QUA"/>
+        <filter val="SEG"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H59">
+      <sortCondition ref="D1:D61"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
